--- a/teaching/traditional_assets/database/data/croatia/croatia_household_products.xlsx
+++ b/teaching/traditional_assets/database/data/croatia/croatia_household_products.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="zgse_sapn" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,25 +593,28 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0256</v>
+        <v>-0.0481</v>
+      </c>
+      <c r="E2">
+        <v>-0.319</v>
       </c>
       <c r="G2">
-        <v>0.0289707750952986</v>
+        <v>0.0843653250773994</v>
       </c>
       <c r="H2">
-        <v>0.0289707750952986</v>
+        <v>0.0843653250773994</v>
       </c>
       <c r="I2">
-        <v>-0.02236340533672173</v>
+        <v>0.05201238390092879</v>
       </c>
       <c r="J2">
-        <v>-0.02236340533672173</v>
+        <v>0.05201238390092879</v>
       </c>
       <c r="K2">
-        <v>-2.94</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="L2">
-        <v>-0.01867852604828462</v>
+        <v>0.00431888544891641</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -618,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +632,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.15</v>
+        <v>13.7</v>
       </c>
       <c r="V2">
-        <v>0.03993055555555555</v>
+        <v>0.3010989010989011</v>
       </c>
       <c r="W2">
-        <v>-0.04835526315789474</v>
+        <v>0.01039106145251397</v>
       </c>
       <c r="X2">
-        <v>0.2083687542667406</v>
+        <v>0.1246099159353617</v>
       </c>
       <c r="Y2">
-        <v>-0.2567240174246353</v>
+        <v>-0.1142188544828477</v>
       </c>
       <c r="Z2">
-        <v>1.324804309401566</v>
+        <v>1.268532155130093</v>
       </c>
       <c r="AA2">
-        <v>-0.02962713576298291</v>
+        <v>0.06597938144329897</v>
       </c>
       <c r="AB2">
-        <v>0.1075415976672446</v>
+        <v>0.07835116924419452</v>
       </c>
       <c r="AC2">
-        <v>-0.1371687334302275</v>
+        <v>-0.01237178780089555</v>
       </c>
       <c r="AD2">
-        <v>49.3</v>
+        <v>47.3</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>49.3</v>
+        <v>47.3</v>
       </c>
       <c r="AG2">
-        <v>48.15</v>
+        <v>33.59999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.6312419974391805</v>
+        <v>0.509698275862069</v>
       </c>
       <c r="AI2">
-        <v>0.4294425087108014</v>
+        <v>0.412739965095986</v>
       </c>
       <c r="AJ2">
-        <v>0.6257309941520467</v>
+        <v>0.4247787610619468</v>
       </c>
       <c r="AK2">
-        <v>0.4236691597008359</v>
+        <v>0.3330029732408325</v>
       </c>
       <c r="AL2">
-        <v>1.59</v>
+        <v>1.42</v>
       </c>
       <c r="AM2">
-        <v>1.001</v>
+        <v>1.292</v>
       </c>
       <c r="AN2">
-        <v>14.54277286135693</v>
+        <v>3.556390977443609</v>
       </c>
       <c r="AO2">
-        <v>-2.213836477987421</v>
+        <v>4.732394366197183</v>
       </c>
       <c r="AP2">
-        <v>14.20353982300885</v>
+        <v>2.526315789473684</v>
       </c>
       <c r="AQ2">
-        <v>-3.516483516483516</v>
+        <v>5.20123839009288</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +724,28 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0256</v>
+        <v>-0.0481</v>
+      </c>
+      <c r="E3">
+        <v>-0.319</v>
       </c>
       <c r="G3">
-        <v>0.0289707750952986</v>
+        <v>0.0843653250773994</v>
       </c>
       <c r="H3">
-        <v>0.0289707750952986</v>
+        <v>0.0843653250773994</v>
       </c>
       <c r="I3">
-        <v>-0.02236340533672173</v>
+        <v>0.05201238390092879</v>
       </c>
       <c r="J3">
-        <v>-0.02236340533672173</v>
+        <v>0.05201238390092879</v>
       </c>
       <c r="K3">
-        <v>-2.94</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="L3">
-        <v>-0.01867852604828462</v>
+        <v>0.00431888544891641</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,7 +754,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,79 +763,8797 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.15</v>
+        <v>13.7</v>
       </c>
       <c r="V3">
-        <v>0.03993055555555555</v>
+        <v>0.3010989010989011</v>
       </c>
       <c r="W3">
-        <v>-0.04835526315789474</v>
+        <v>0.01039106145251397</v>
       </c>
       <c r="X3">
-        <v>0.2083687542667406</v>
+        <v>0.1246099159353617</v>
       </c>
       <c r="Y3">
-        <v>-0.2567240174246353</v>
+        <v>-0.1142188544828477</v>
       </c>
       <c r="Z3">
-        <v>1.324804309401566</v>
+        <v>1.268532155130093</v>
       </c>
       <c r="AA3">
-        <v>-0.02962713576298291</v>
+        <v>0.06597938144329897</v>
       </c>
       <c r="AB3">
-        <v>0.1075415976672446</v>
+        <v>0.07835116924419452</v>
       </c>
       <c r="AC3">
-        <v>-0.1371687334302275</v>
+        <v>-0.01237178780089555</v>
       </c>
       <c r="AD3">
-        <v>49.3</v>
+        <v>47.3</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>49.3</v>
+        <v>47.3</v>
       </c>
       <c r="AG3">
-        <v>48.15</v>
+        <v>33.59999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.6312419974391805</v>
+        <v>0.509698275862069</v>
       </c>
       <c r="AI3">
-        <v>0.4294425087108014</v>
+        <v>0.412739965095986</v>
       </c>
       <c r="AJ3">
-        <v>0.6257309941520467</v>
+        <v>0.4247787610619468</v>
       </c>
       <c r="AK3">
-        <v>0.4236691597008359</v>
+        <v>0.3330029732408325</v>
       </c>
       <c r="AL3">
-        <v>1.59</v>
+        <v>1.42</v>
       </c>
       <c r="AM3">
-        <v>1.001</v>
+        <v>1.292</v>
       </c>
       <c r="AN3">
-        <v>14.54277286135693</v>
+        <v>3.556390977443609</v>
       </c>
       <c r="AO3">
-        <v>-2.213836477987421</v>
+        <v>4.732394366197183</v>
       </c>
       <c r="AP3">
-        <v>14.20353982300885</v>
+        <v>2.526315789473684</v>
       </c>
       <c r="AQ3">
-        <v>-3.516483516483516</v>
+        <v>5.20123839009288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Saponia d.d. (ZGSE:SAPN)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ZGSE:SAPN</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Household Products</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.509698275862069</v>
+      </c>
+      <c r="F2">
+        <v>0.3</v>
+      </c>
+      <c r="G2">
+        <v>45.5</v>
+      </c>
+      <c r="H2">
+        <v>73.96257117816489</v>
+      </c>
+      <c r="I2">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="J2">
+        <v>88.10257117816489</v>
+      </c>
+      <c r="K2">
+        <v>47.3</v>
+      </c>
+      <c r="L2">
+        <v>27.84</v>
+      </c>
+      <c r="M2">
+        <v>0.0783511692441945</v>
+      </c>
+      <c r="N2">
+        <v>0.06938142916742721</v>
+      </c>
+      <c r="O2">
+        <v>0.0338527976913804</v>
+      </c>
+      <c r="P2">
+        <v>0.013284</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.124609915935362</v>
+      </c>
+      <c r="T2">
+        <v>0.09342318452489611</v>
+      </c>
+      <c r="U2">
+        <v>1.61493370254751</v>
+      </c>
+      <c r="V2">
+        <v>1.17815857164471</v>
+      </c>
+      <c r="W2">
+        <v>13.92436497800483</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>45.5</v>
+      </c>
+      <c r="AB2">
+        <v>0.07140225989058496</v>
+      </c>
+      <c r="AC2">
+        <v>0.04128389962363468</v>
+      </c>
+      <c r="AD2">
+        <v>0.18</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>13.3</v>
+      </c>
+      <c r="AH2">
+        <v>7.02</v>
+      </c>
+      <c r="AI2">
+        <v>5.16</v>
+      </c>
+      <c r="AJ2">
+        <v>47.3</v>
+      </c>
+      <c r="AK2">
+        <v>47.3</v>
+      </c>
+      <c r="AL2">
+        <v>1.42</v>
+      </c>
+      <c r="AM2">
+        <v>47.3</v>
+      </c>
+      <c r="AN2">
+        <v>13.7</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.07154759954273493</v>
+      </c>
+      <c r="C2">
+        <v>99.44580912489685</v>
+      </c>
+      <c r="D2">
+        <v>85.74580912489685</v>
+      </c>
+      <c r="E2">
+        <v>-47.3</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>13.7</v>
+      </c>
+      <c r="H2">
+        <v>45.5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>13.3</v>
+      </c>
+      <c r="K2">
+        <v>7.02</v>
+      </c>
+      <c r="L2">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="O2">
+        <v>1.1304</v>
+      </c>
+      <c r="P2">
+        <v>5.149600000000001</v>
+      </c>
+      <c r="Q2">
+        <v>12.1696</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.07154759954273493</v>
+      </c>
+      <c r="T2">
+        <v>0.8717875265869959</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.18</v>
+      </c>
+      <c r="W2">
+        <v>0.013284</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.071475393863558</v>
+      </c>
+      <c r="C3">
+        <v>98.5943346333211</v>
+      </c>
+      <c r="D3">
+        <v>85.82233463332109</v>
+      </c>
+      <c r="E3">
+        <v>-46.372</v>
+      </c>
+      <c r="F3">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="G3">
+        <v>13.7</v>
+      </c>
+      <c r="H3">
+        <v>45.5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>13.3</v>
+      </c>
+      <c r="K3">
+        <v>7.02</v>
+      </c>
+      <c r="L3">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.0150336</v>
+      </c>
+      <c r="N3">
+        <v>6.264966400000001</v>
+      </c>
+      <c r="O3">
+        <v>1.127693952</v>
+      </c>
+      <c r="P3">
+        <v>5.137272448000001</v>
+      </c>
+      <c r="Q3">
+        <v>12.157272448</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.07206318572076566</v>
+      </c>
+      <c r="T3">
+        <v>0.8790083929688275</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.18</v>
+      </c>
+      <c r="W3">
+        <v>0.013284</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>417.7309493401449</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.07140318818438109</v>
+      </c>
+      <c r="C4">
+        <v>97.74299685710444</v>
+      </c>
+      <c r="D4">
+        <v>85.89899685710444</v>
+      </c>
+      <c r="E4">
+        <v>-45.444</v>
+      </c>
+      <c r="F4">
+        <v>1.856</v>
+      </c>
+      <c r="G4">
+        <v>13.7</v>
+      </c>
+      <c r="H4">
+        <v>45.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>13.3</v>
+      </c>
+      <c r="K4">
+        <v>7.02</v>
+      </c>
+      <c r="L4">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.0300672</v>
+      </c>
+      <c r="N4">
+        <v>6.249932800000001</v>
+      </c>
+      <c r="O4">
+        <v>1.124987904</v>
+      </c>
+      <c r="P4">
+        <v>5.124944896000001</v>
+      </c>
+      <c r="Q4">
+        <v>12.144944896</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.07258929406569499</v>
+      </c>
+      <c r="T4">
+        <v>0.8863766239706966</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.18</v>
+      </c>
+      <c r="W4">
+        <v>0.013284</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>208.8654746700724</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.07133098250520416</v>
+      </c>
+      <c r="C5">
+        <v>96.89179616294435</v>
+      </c>
+      <c r="D5">
+        <v>85.97579616294435</v>
+      </c>
+      <c r="E5">
+        <v>-44.516</v>
+      </c>
+      <c r="F5">
+        <v>2.784</v>
+      </c>
+      <c r="G5">
+        <v>13.7</v>
+      </c>
+      <c r="H5">
+        <v>45.5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>13.3</v>
+      </c>
+      <c r="K5">
+        <v>7.02</v>
+      </c>
+      <c r="L5">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.0451008</v>
+      </c>
+      <c r="N5">
+        <v>6.234899200000001</v>
+      </c>
+      <c r="O5">
+        <v>1.122281856</v>
+      </c>
+      <c r="P5">
+        <v>5.112617344000001</v>
+      </c>
+      <c r="Q5">
+        <v>12.132617344</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.07312625000536511</v>
+      </c>
+      <c r="T5">
+        <v>0.893896777261264</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.18</v>
+      </c>
+      <c r="W5">
+        <v>0.013284</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>139.2436497800483</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.07125877682602723</v>
+      </c>
+      <c r="C6">
+        <v>96.04073291885068</v>
+      </c>
+      <c r="D6">
+        <v>86.05273291885068</v>
+      </c>
+      <c r="E6">
+        <v>-43.58799999999999</v>
+      </c>
+      <c r="F6">
+        <v>3.712</v>
+      </c>
+      <c r="G6">
+        <v>13.7</v>
+      </c>
+      <c r="H6">
+        <v>45.5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>13.3</v>
+      </c>
+      <c r="K6">
+        <v>7.02</v>
+      </c>
+      <c r="L6">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.06013439999999999</v>
+      </c>
+      <c r="N6">
+        <v>6.219865600000001</v>
+      </c>
+      <c r="O6">
+        <v>1.119575808</v>
+      </c>
+      <c r="P6">
+        <v>5.100289792000001</v>
+      </c>
+      <c r="Q6">
+        <v>12.120289792</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.07367439252711171</v>
+      </c>
+      <c r="T6">
+        <v>0.9015736004120516</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.18</v>
+      </c>
+      <c r="W6">
+        <v>0.013284</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>104.4327373350362</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.07118657114685031</v>
+      </c>
+      <c r="C7">
+        <v>95.18980749415181</v>
+      </c>
+      <c r="D7">
+        <v>86.12980749415181</v>
+      </c>
+      <c r="E7">
+        <v>-42.66</v>
+      </c>
+      <c r="F7">
+        <v>4.64</v>
+      </c>
+      <c r="G7">
+        <v>13.7</v>
+      </c>
+      <c r="H7">
+        <v>45.5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>13.3</v>
+      </c>
+      <c r="K7">
+        <v>7.02</v>
+      </c>
+      <c r="L7">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.07516799999999998</v>
+      </c>
+      <c r="N7">
+        <v>6.204832000000001</v>
+      </c>
+      <c r="O7">
+        <v>1.11686976</v>
+      </c>
+      <c r="P7">
+        <v>5.087962240000001</v>
+      </c>
+      <c r="Q7">
+        <v>12.10796224</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.07423407489142138</v>
+      </c>
+      <c r="T7">
+        <v>0.9094120408923293</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.18</v>
+      </c>
+      <c r="W7">
+        <v>0.013284</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>83.54618986802899</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.07111436546767338</v>
+      </c>
+      <c r="C8">
+        <v>94.33902025950051</v>
+      </c>
+      <c r="D8">
+        <v>86.20702025950051</v>
+      </c>
+      <c r="E8">
+        <v>-41.732</v>
+      </c>
+      <c r="F8">
+        <v>5.568</v>
+      </c>
+      <c r="G8">
+        <v>13.7</v>
+      </c>
+      <c r="H8">
+        <v>45.5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>13.3</v>
+      </c>
+      <c r="K8">
+        <v>7.02</v>
+      </c>
+      <c r="L8">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.09020159999999999</v>
+      </c>
+      <c r="N8">
+        <v>6.189798400000001</v>
+      </c>
+      <c r="O8">
+        <v>1.114163712</v>
+      </c>
+      <c r="P8">
+        <v>5.075634688000001</v>
+      </c>
+      <c r="Q8">
+        <v>12.095634688</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.0748056653911419</v>
+      </c>
+      <c r="T8">
+        <v>0.9174172567019748</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.18</v>
+      </c>
+      <c r="W8">
+        <v>0.013284</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>69.62182489002414</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.07104215978849646</v>
+      </c>
+      <c r="C9">
+        <v>93.48837158687985</v>
+      </c>
+      <c r="D9">
+        <v>86.28437158687984</v>
+      </c>
+      <c r="E9">
+        <v>-40.80399999999999</v>
+      </c>
+      <c r="F9">
+        <v>6.496</v>
+      </c>
+      <c r="G9">
+        <v>13.7</v>
+      </c>
+      <c r="H9">
+        <v>45.5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>13.3</v>
+      </c>
+      <c r="K9">
+        <v>7.02</v>
+      </c>
+      <c r="L9">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.1052352</v>
+      </c>
+      <c r="N9">
+        <v>6.174764800000001</v>
+      </c>
+      <c r="O9">
+        <v>1.111457664</v>
+      </c>
+      <c r="P9">
+        <v>5.063307136000001</v>
+      </c>
+      <c r="Q9">
+        <v>12.083307136</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.07538954815967362</v>
+      </c>
+      <c r="T9">
+        <v>0.9255946276903223</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.18</v>
+      </c>
+      <c r="W9">
+        <v>0.013284</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>59.67584990573497</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.07096995410931956</v>
+      </c>
+      <c r="C10">
+        <v>92.6378618496091</v>
+      </c>
+      <c r="D10">
+        <v>86.36186184960908</v>
+      </c>
+      <c r="E10">
+        <v>-39.876</v>
+      </c>
+      <c r="F10">
+        <v>7.423999999999999</v>
+      </c>
+      <c r="G10">
+        <v>13.7</v>
+      </c>
+      <c r="H10">
+        <v>45.5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>13.3</v>
+      </c>
+      <c r="K10">
+        <v>7.02</v>
+      </c>
+      <c r="L10">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.1202688</v>
+      </c>
+      <c r="N10">
+        <v>6.159731200000001</v>
+      </c>
+      <c r="O10">
+        <v>1.108751616</v>
+      </c>
+      <c r="P10">
+        <v>5.050979584000001</v>
+      </c>
+      <c r="Q10">
+        <v>12.070979584</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.07598612403186908</v>
+      </c>
+      <c r="T10">
+        <v>0.9339497676131991</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.18</v>
+      </c>
+      <c r="W10">
+        <v>0.013284</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>52.21636866751811</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.07089774843014263</v>
+      </c>
+      <c r="C11">
+        <v>91.78749142234996</v>
+      </c>
+      <c r="D11">
+        <v>86.43949142234996</v>
+      </c>
+      <c r="E11">
+        <v>-38.94799999999999</v>
+      </c>
+      <c r="F11">
+        <v>8.352</v>
+      </c>
+      <c r="G11">
+        <v>13.7</v>
+      </c>
+      <c r="H11">
+        <v>45.5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>13.3</v>
+      </c>
+      <c r="K11">
+        <v>7.02</v>
+      </c>
+      <c r="L11">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.1353024</v>
+      </c>
+      <c r="N11">
+        <v>6.144697600000002</v>
+      </c>
+      <c r="O11">
+        <v>1.106045568</v>
+      </c>
+      <c r="P11">
+        <v>5.038652032000002</v>
+      </c>
+      <c r="Q11">
+        <v>12.058652032</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.0765958114616952</v>
+      </c>
+      <c r="T11">
+        <v>0.9424885369849303</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.18</v>
+      </c>
+      <c r="W11">
+        <v>0.013284</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>46.41454992668277</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.0708255427509657</v>
+      </c>
+      <c r="C12">
+        <v>90.93726068111236</v>
+      </c>
+      <c r="D12">
+        <v>86.51726068111236</v>
+      </c>
+      <c r="E12">
+        <v>-38.02</v>
+      </c>
+      <c r="F12">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="G12">
+        <v>13.7</v>
+      </c>
+      <c r="H12">
+        <v>45.5</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>13.3</v>
+      </c>
+      <c r="K12">
+        <v>7.02</v>
+      </c>
+      <c r="L12">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M12">
+        <v>0.150336</v>
+      </c>
+      <c r="N12">
+        <v>6.129664000000001</v>
+      </c>
+      <c r="O12">
+        <v>1.10333952</v>
+      </c>
+      <c r="P12">
+        <v>5.026324480000001</v>
+      </c>
+      <c r="Q12">
+        <v>12.04632448</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.077219047501073</v>
+      </c>
+      <c r="T12">
+        <v>0.9512170567871444</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.18</v>
+      </c>
+      <c r="W12">
+        <v>0.013284</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>41.77309493401449</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.07075333707178878</v>
+      </c>
+      <c r="C13">
+        <v>90.08717000326062</v>
+      </c>
+      <c r="D13">
+        <v>86.59517000326062</v>
+      </c>
+      <c r="E13">
+        <v>-37.092</v>
+      </c>
+      <c r="F13">
+        <v>10.208</v>
+      </c>
+      <c r="G13">
+        <v>13.7</v>
+      </c>
+      <c r="H13">
+        <v>45.5</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>13.3</v>
+      </c>
+      <c r="K13">
+        <v>7.02</v>
+      </c>
+      <c r="L13">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M13">
+        <v>0.1653696</v>
+      </c>
+      <c r="N13">
+        <v>6.114630400000001</v>
+      </c>
+      <c r="O13">
+        <v>1.100633472</v>
+      </c>
+      <c r="P13">
+        <v>5.013996928000001</v>
+      </c>
+      <c r="Q13">
+        <v>12.033996928</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.07785628884470649</v>
+      </c>
+      <c r="T13">
+        <v>0.9601417231017678</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.18</v>
+      </c>
+      <c r="W13">
+        <v>0.013284</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>37.97554084910407</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.07068113139261184</v>
+      </c>
+      <c r="C14">
+        <v>89.23721976751968</v>
+      </c>
+      <c r="D14">
+        <v>86.67321976751967</v>
+      </c>
+      <c r="E14">
+        <v>-36.164</v>
+      </c>
+      <c r="F14">
+        <v>11.136</v>
+      </c>
+      <c r="G14">
+        <v>13.7</v>
+      </c>
+      <c r="H14">
+        <v>45.5</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>13.3</v>
+      </c>
+      <c r="K14">
+        <v>7.02</v>
+      </c>
+      <c r="L14">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M14">
+        <v>0.1804032</v>
+      </c>
+      <c r="N14">
+        <v>6.099596800000001</v>
+      </c>
+      <c r="O14">
+        <v>1.097927424</v>
+      </c>
+      <c r="P14">
+        <v>5.001669376000001</v>
+      </c>
+      <c r="Q14">
+        <v>12.021669376</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.07850801294614983</v>
+      </c>
+      <c r="T14">
+        <v>0.9692692227417236</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.18</v>
+      </c>
+      <c r="W14">
+        <v>0.013284</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>34.81091244501207</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.07060892571343495</v>
+      </c>
+      <c r="C15">
+        <v>88.38741035398084</v>
+      </c>
+      <c r="D15">
+        <v>86.75141035398084</v>
+      </c>
+      <c r="E15">
+        <v>-35.236</v>
+      </c>
+      <c r="F15">
+        <v>12.064</v>
+      </c>
+      <c r="G15">
+        <v>13.7</v>
+      </c>
+      <c r="H15">
+        <v>45.5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>13.3</v>
+      </c>
+      <c r="K15">
+        <v>7.02</v>
+      </c>
+      <c r="L15">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M15">
+        <v>0.1954368</v>
+      </c>
+      <c r="N15">
+        <v>6.084563200000001</v>
+      </c>
+      <c r="O15">
+        <v>1.095221376</v>
+      </c>
+      <c r="P15">
+        <v>4.989341824</v>
+      </c>
+      <c r="Q15">
+        <v>12.009341824</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.07917471921084476</v>
+      </c>
+      <c r="T15">
+        <v>0.9786065499596095</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.18</v>
+      </c>
+      <c r="W15">
+        <v>0.013284</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>32.13314994924191</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07053672003425802</v>
+      </c>
+      <c r="C16">
+        <v>87.53774214410859</v>
+      </c>
+      <c r="D16">
+        <v>86.82974214410859</v>
+      </c>
+      <c r="E16">
+        <v>-34.30799999999999</v>
+      </c>
+      <c r="F16">
+        <v>12.992</v>
+      </c>
+      <c r="G16">
+        <v>13.7</v>
+      </c>
+      <c r="H16">
+        <v>45.5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>13.3</v>
+      </c>
+      <c r="K16">
+        <v>7.02</v>
+      </c>
+      <c r="L16">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M16">
+        <v>0.2104704</v>
+      </c>
+      <c r="N16">
+        <v>6.069529600000001</v>
+      </c>
+      <c r="O16">
+        <v>1.092515328</v>
+      </c>
+      <c r="P16">
+        <v>4.977014272000001</v>
+      </c>
+      <c r="Q16">
+        <v>11.997014272</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.07985693027239305</v>
+      </c>
+      <c r="T16">
+        <v>0.9881610243220973</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.18</v>
+      </c>
+      <c r="W16">
+        <v>0.013284</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>29.83792495286749</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.0704645143550811</v>
+      </c>
+      <c r="C17">
+        <v>86.68821552074617</v>
+      </c>
+      <c r="D17">
+        <v>86.90821552074617</v>
+      </c>
+      <c r="E17">
+        <v>-33.38</v>
+      </c>
+      <c r="F17">
+        <v>13.92</v>
+      </c>
+      <c r="G17">
+        <v>13.7</v>
+      </c>
+      <c r="H17">
+        <v>45.5</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>13.3</v>
+      </c>
+      <c r="K17">
+        <v>7.02</v>
+      </c>
+      <c r="L17">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M17">
+        <v>0.225504</v>
+      </c>
+      <c r="N17">
+        <v>6.054496000000001</v>
+      </c>
+      <c r="O17">
+        <v>1.08980928</v>
+      </c>
+      <c r="P17">
+        <v>4.964686720000001</v>
+      </c>
+      <c r="Q17">
+        <v>11.98468672</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.08055519335891893</v>
+      </c>
+      <c r="T17">
+        <v>0.9979403098460553</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.18</v>
+      </c>
+      <c r="W17">
+        <v>0.013284</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>27.84872995600966</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.07039230867590417</v>
+      </c>
+      <c r="C18">
+        <v>85.8388308681221</v>
+      </c>
+      <c r="D18">
+        <v>86.9868308681221</v>
+      </c>
+      <c r="E18">
+        <v>-32.452</v>
+      </c>
+      <c r="F18">
+        <v>14.848</v>
+      </c>
+      <c r="G18">
+        <v>13.7</v>
+      </c>
+      <c r="H18">
+        <v>45.5</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>13.3</v>
+      </c>
+      <c r="K18">
+        <v>7.02</v>
+      </c>
+      <c r="L18">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M18">
+        <v>0.2405376</v>
+      </c>
+      <c r="N18">
+        <v>6.039462400000001</v>
+      </c>
+      <c r="O18">
+        <v>1.087103232</v>
+      </c>
+      <c r="P18">
+        <v>4.952359168000001</v>
+      </c>
+      <c r="Q18">
+        <v>11.972359168</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.08127008175702877</v>
+      </c>
+      <c r="T18">
+        <v>1.007952435501536</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.18</v>
+      </c>
+      <c r="W18">
+        <v>0.013284</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>26.10818433375906</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.07032010299672724</v>
+      </c>
+      <c r="C19">
+        <v>84.9895885718565</v>
+      </c>
+      <c r="D19">
+        <v>87.06558857185649</v>
+      </c>
+      <c r="E19">
+        <v>-31.524</v>
+      </c>
+      <c r="F19">
+        <v>15.776</v>
+      </c>
+      <c r="G19">
+        <v>13.7</v>
+      </c>
+      <c r="H19">
+        <v>45.5</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>13.3</v>
+      </c>
+      <c r="K19">
+        <v>7.02</v>
+      </c>
+      <c r="L19">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M19">
+        <v>0.2555712</v>
+      </c>
+      <c r="N19">
+        <v>6.024428800000001</v>
+      </c>
+      <c r="O19">
+        <v>1.084397184</v>
+      </c>
+      <c r="P19">
+        <v>4.940031616000001</v>
+      </c>
+      <c r="Q19">
+        <v>11.960031616</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.08200219638159909</v>
+      </c>
+      <c r="T19">
+        <v>1.018205817196908</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.18</v>
+      </c>
+      <c r="W19">
+        <v>0.013284</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>24.5724087847144</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.07024789731755031</v>
+      </c>
+      <c r="C20">
+        <v>84.14048901896723</v>
+      </c>
+      <c r="D20">
+        <v>87.14448901896723</v>
+      </c>
+      <c r="E20">
+        <v>-30.596</v>
+      </c>
+      <c r="F20">
+        <v>16.704</v>
+      </c>
+      <c r="G20">
+        <v>13.7</v>
+      </c>
+      <c r="H20">
+        <v>45.5</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>13.3</v>
+      </c>
+      <c r="K20">
+        <v>7.02</v>
+      </c>
+      <c r="L20">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M20">
+        <v>0.2706048</v>
+      </c>
+      <c r="N20">
+        <v>6.009395200000001</v>
+      </c>
+      <c r="O20">
+        <v>1.081691136</v>
+      </c>
+      <c r="P20">
+        <v>4.927704064000001</v>
+      </c>
+      <c r="Q20">
+        <v>11.947704064</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.08275216746042721</v>
+      </c>
+      <c r="T20">
+        <v>1.028709281372655</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.18</v>
+      </c>
+      <c r="W20">
+        <v>0.013284</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>23.20727496334138</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.07017569163837341</v>
+      </c>
+      <c r="C21">
+        <v>83.29153259787634</v>
+      </c>
+      <c r="D21">
+        <v>87.22353259787634</v>
+      </c>
+      <c r="E21">
+        <v>-29.668</v>
+      </c>
+      <c r="F21">
+        <v>17.632</v>
+      </c>
+      <c r="G21">
+        <v>13.7</v>
+      </c>
+      <c r="H21">
+        <v>45.5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>13.3</v>
+      </c>
+      <c r="K21">
+        <v>7.02</v>
+      </c>
+      <c r="L21">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M21">
+        <v>0.2856384</v>
+      </c>
+      <c r="N21">
+        <v>5.994361600000001</v>
+      </c>
+      <c r="O21">
+        <v>1.078985088</v>
+      </c>
+      <c r="P21">
+        <v>4.915376512000001</v>
+      </c>
+      <c r="Q21">
+        <v>11.935376512</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.08352065634367085</v>
+      </c>
+      <c r="T21">
+        <v>1.039472090342865</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.18</v>
+      </c>
+      <c r="W21">
+        <v>0.013284</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>21.98583943895499</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.07010348595919649</v>
+      </c>
+      <c r="C22">
+        <v>82.44271969841645</v>
+      </c>
+      <c r="D22">
+        <v>87.30271969841645</v>
+      </c>
+      <c r="E22">
+        <v>-28.74</v>
+      </c>
+      <c r="F22">
+        <v>18.56</v>
+      </c>
+      <c r="G22">
+        <v>13.7</v>
+      </c>
+      <c r="H22">
+        <v>45.5</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>13.3</v>
+      </c>
+      <c r="K22">
+        <v>7.02</v>
+      </c>
+      <c r="L22">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M22">
+        <v>0.3006719999999999</v>
+      </c>
+      <c r="N22">
+        <v>5.979328000000002</v>
+      </c>
+      <c r="O22">
+        <v>1.07627904</v>
+      </c>
+      <c r="P22">
+        <v>4.903048960000001</v>
+      </c>
+      <c r="Q22">
+        <v>11.92304896</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.08430835744899561</v>
+      </c>
+      <c r="T22">
+        <v>1.05050396953733</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.18</v>
+      </c>
+      <c r="W22">
+        <v>0.013284</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>20.88654746700725</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.07003128028001955</v>
+      </c>
+      <c r="C23">
+        <v>81.59405071183717</v>
+      </c>
+      <c r="D23">
+        <v>87.38205071183717</v>
+      </c>
+      <c r="E23">
+        <v>-27.812</v>
+      </c>
+      <c r="F23">
+        <v>19.488</v>
+      </c>
+      <c r="G23">
+        <v>13.7</v>
+      </c>
+      <c r="H23">
+        <v>45.5</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>13.3</v>
+      </c>
+      <c r="K23">
+        <v>7.02</v>
+      </c>
+      <c r="L23">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M23">
+        <v>0.3157056</v>
+      </c>
+      <c r="N23">
+        <v>5.964294400000001</v>
+      </c>
+      <c r="O23">
+        <v>1.073572992</v>
+      </c>
+      <c r="P23">
+        <v>4.890721408000001</v>
+      </c>
+      <c r="Q23">
+        <v>11.910721408</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.08511600035445513</v>
+      </c>
+      <c r="T23">
+        <v>1.061815136812668</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.18</v>
+      </c>
+      <c r="W23">
+        <v>0.013284</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>19.89194996857832</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.06995907460084264</v>
+      </c>
+      <c r="C24">
+        <v>80.74552603081133</v>
+      </c>
+      <c r="D24">
+        <v>87.46152603081133</v>
+      </c>
+      <c r="E24">
+        <v>-26.884</v>
+      </c>
+      <c r="F24">
+        <v>20.416</v>
+      </c>
+      <c r="G24">
+        <v>13.7</v>
+      </c>
+      <c r="H24">
+        <v>45.5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>13.3</v>
+      </c>
+      <c r="K24">
+        <v>7.02</v>
+      </c>
+      <c r="L24">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M24">
+        <v>0.3307392</v>
+      </c>
+      <c r="N24">
+        <v>5.949260800000001</v>
+      </c>
+      <c r="O24">
+        <v>1.070866944</v>
+      </c>
+      <c r="P24">
+        <v>4.878393856000001</v>
+      </c>
+      <c r="Q24">
+        <v>11.898393856</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.08594435205236235</v>
+      </c>
+      <c r="T24">
+        <v>1.073416334018142</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.18</v>
+      </c>
+      <c r="W24">
+        <v>0.013284</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>18.98777042455204</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.06988686892166571</v>
+      </c>
+      <c r="C25">
+        <v>79.89714604944177</v>
+      </c>
+      <c r="D25">
+        <v>87.54114604944176</v>
+      </c>
+      <c r="E25">
+        <v>-25.956</v>
+      </c>
+      <c r="F25">
+        <v>21.344</v>
+      </c>
+      <c r="G25">
+        <v>13.7</v>
+      </c>
+      <c r="H25">
+        <v>45.5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>13.3</v>
+      </c>
+      <c r="K25">
+        <v>7.02</v>
+      </c>
+      <c r="L25">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M25">
+        <v>0.3457728</v>
+      </c>
+      <c r="N25">
+        <v>5.934227200000001</v>
+      </c>
+      <c r="O25">
+        <v>1.068160896</v>
+      </c>
+      <c r="P25">
+        <v>4.866066304000001</v>
+      </c>
+      <c r="Q25">
+        <v>11.886066304</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.08679421937878663</v>
+      </c>
+      <c r="T25">
+        <v>1.085318861021161</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.18</v>
+      </c>
+      <c r="W25">
+        <v>0.013284</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>18.16221518870195</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.06981466324248876</v>
+      </c>
+      <c r="C26">
+        <v>79.04891116326772</v>
+      </c>
+      <c r="D26">
+        <v>87.62091116326771</v>
+      </c>
+      <c r="E26">
+        <v>-25.028</v>
+      </c>
+      <c r="F26">
+        <v>22.272</v>
+      </c>
+      <c r="G26">
+        <v>13.7</v>
+      </c>
+      <c r="H26">
+        <v>45.5</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>13.3</v>
+      </c>
+      <c r="K26">
+        <v>7.02</v>
+      </c>
+      <c r="L26">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M26">
+        <v>0.3608064</v>
+      </c>
+      <c r="N26">
+        <v>5.919193600000002</v>
+      </c>
+      <c r="O26">
+        <v>1.065454848</v>
+      </c>
+      <c r="P26">
+        <v>4.853738752000002</v>
+      </c>
+      <c r="Q26">
+        <v>11.873738752</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.08766645163485365</v>
+      </c>
+      <c r="T26">
+        <v>1.097534612418997</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.18</v>
+      </c>
+      <c r="W26">
+        <v>0.013284</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>17.40545622250604</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.06974245756331188</v>
+      </c>
+      <c r="C27">
+        <v>78.20082176927119</v>
+      </c>
+      <c r="D27">
+        <v>87.70082176927119</v>
+      </c>
+      <c r="E27">
+        <v>-24.1</v>
+      </c>
+      <c r="F27">
+        <v>23.2</v>
+      </c>
+      <c r="G27">
+        <v>13.7</v>
+      </c>
+      <c r="H27">
+        <v>45.5</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>13.3</v>
+      </c>
+      <c r="K27">
+        <v>7.02</v>
+      </c>
+      <c r="L27">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M27">
+        <v>0.37584</v>
+      </c>
+      <c r="N27">
+        <v>5.904160000000001</v>
+      </c>
+      <c r="O27">
+        <v>1.0627488</v>
+      </c>
+      <c r="P27">
+        <v>4.841411200000001</v>
+      </c>
+      <c r="Q27">
+        <v>11.8614112</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.08856194341774916</v>
+      </c>
+      <c r="T27">
+        <v>1.110076117187442</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.18</v>
+      </c>
+      <c r="W27">
+        <v>0.013284</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>16.70923797360579</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.06967025188413493</v>
+      </c>
+      <c r="C28">
+        <v>77.35287826588394</v>
+      </c>
+      <c r="D28">
+        <v>87.78087826588394</v>
+      </c>
+      <c r="E28">
+        <v>-23.172</v>
+      </c>
+      <c r="F28">
+        <v>24.128</v>
+      </c>
+      <c r="G28">
+        <v>13.7</v>
+      </c>
+      <c r="H28">
+        <v>45.5</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>13.3</v>
+      </c>
+      <c r="K28">
+        <v>7.02</v>
+      </c>
+      <c r="L28">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M28">
+        <v>0.3908736</v>
+      </c>
+      <c r="N28">
+        <v>5.889126400000001</v>
+      </c>
+      <c r="O28">
+        <v>1.060042752</v>
+      </c>
+      <c r="P28">
+        <v>4.829083648000001</v>
+      </c>
+      <c r="Q28">
+        <v>11.849083648</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.08948163768126342</v>
+      </c>
+      <c r="T28">
+        <v>1.122956581544222</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.18</v>
+      </c>
+      <c r="W28">
+        <v>0.013284</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>16.06657497462096</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.06959804620495801</v>
+      </c>
+      <c r="C29">
+        <v>76.50508105299367</v>
+      </c>
+      <c r="D29">
+        <v>87.86108105299367</v>
+      </c>
+      <c r="E29">
+        <v>-22.244</v>
+      </c>
+      <c r="F29">
+        <v>25.056</v>
+      </c>
+      <c r="G29">
+        <v>13.7</v>
+      </c>
+      <c r="H29">
+        <v>45.5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>13.3</v>
+      </c>
+      <c r="K29">
+        <v>7.02</v>
+      </c>
+      <c r="L29">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M29">
+        <v>0.4059072</v>
+      </c>
+      <c r="N29">
+        <v>5.874092800000001</v>
+      </c>
+      <c r="O29">
+        <v>1.057336704</v>
+      </c>
+      <c r="P29">
+        <v>4.816756096000002</v>
+      </c>
+      <c r="Q29">
+        <v>11.836756096</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.09042652904788769</v>
+      </c>
+      <c r="T29">
+        <v>1.136189935335435</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.18</v>
+      </c>
+      <c r="W29">
+        <v>0.013284</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>15.47151664222759</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.0695258405257811</v>
+      </c>
+      <c r="C30">
+        <v>75.65743053195098</v>
+      </c>
+      <c r="D30">
+        <v>87.94143053195099</v>
+      </c>
+      <c r="E30">
+        <v>-21.316</v>
+      </c>
+      <c r="F30">
+        <v>25.984</v>
+      </c>
+      <c r="G30">
+        <v>13.7</v>
+      </c>
+      <c r="H30">
+        <v>45.5</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>13.3</v>
+      </c>
+      <c r="K30">
+        <v>7.02</v>
+      </c>
+      <c r="L30">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M30">
+        <v>0.4209408</v>
+      </c>
+      <c r="N30">
+        <v>5.859059200000001</v>
+      </c>
+      <c r="O30">
+        <v>1.054630656</v>
+      </c>
+      <c r="P30">
+        <v>4.804428544</v>
+      </c>
+      <c r="Q30">
+        <v>11.824428544</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.09139766739691819</v>
+      </c>
+      <c r="T30">
+        <v>1.149790882287516</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.18</v>
+      </c>
+      <c r="W30">
+        <v>0.013284</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>14.91896247643374</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.06945363484660416</v>
+      </c>
+      <c r="C31">
+        <v>74.80992710557598</v>
+      </c>
+      <c r="D31">
+        <v>88.02192710557598</v>
+      </c>
+      <c r="E31">
+        <v>-20.388</v>
+      </c>
+      <c r="F31">
+        <v>26.912</v>
+      </c>
+      <c r="G31">
+        <v>13.7</v>
+      </c>
+      <c r="H31">
+        <v>45.5</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>13.3</v>
+      </c>
+      <c r="K31">
+        <v>7.02</v>
+      </c>
+      <c r="L31">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M31">
+        <v>0.4359744</v>
+      </c>
+      <c r="N31">
+        <v>5.844025600000001</v>
+      </c>
+      <c r="O31">
+        <v>1.051924608</v>
+      </c>
+      <c r="P31">
+        <v>4.792100992000001</v>
+      </c>
+      <c r="Q31">
+        <v>11.812100992</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.09239616175578051</v>
+      </c>
+      <c r="T31">
+        <v>1.163774954505852</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.18</v>
+      </c>
+      <c r="W31">
+        <v>0.013284</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>14.40451549448775</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.06938142916742723</v>
+      </c>
+      <c r="C32">
+        <v>73.96257117816492</v>
+      </c>
+      <c r="D32">
+        <v>88.10257117816492</v>
+      </c>
+      <c r="E32">
+        <v>-19.46</v>
+      </c>
+      <c r="F32">
+        <v>27.84</v>
+      </c>
+      <c r="G32">
+        <v>13.7</v>
+      </c>
+      <c r="H32">
+        <v>45.5</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>13.3</v>
+      </c>
+      <c r="K32">
+        <v>7.02</v>
+      </c>
+      <c r="L32">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M32">
+        <v>0.451008</v>
+      </c>
+      <c r="N32">
+        <v>5.828992000000001</v>
+      </c>
+      <c r="O32">
+        <v>1.04921856</v>
+      </c>
+      <c r="P32">
+        <v>4.779773440000001</v>
+      </c>
+      <c r="Q32">
+        <v>11.79977344</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.09342318452489606</v>
+      </c>
+      <c r="T32">
+        <v>1.178158571644712</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.18</v>
+      </c>
+      <c r="W32">
+        <v>0.013284</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>13.92436497800483</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.06971594348825033</v>
+      </c>
+      <c r="C33">
+        <v>72.66220170971191</v>
+      </c>
+      <c r="D33">
+        <v>87.73020170971191</v>
+      </c>
+      <c r="E33">
+        <v>-18.532</v>
+      </c>
+      <c r="F33">
+        <v>28.768</v>
+      </c>
+      <c r="G33">
+        <v>13.7</v>
+      </c>
+      <c r="H33">
+        <v>45.5</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>13.3</v>
+      </c>
+      <c r="K33">
+        <v>7.02</v>
+      </c>
+      <c r="L33">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M33">
+        <v>0.5120704</v>
+      </c>
+      <c r="N33">
+        <v>5.767929600000001</v>
+      </c>
+      <c r="O33">
+        <v>1.038227328</v>
+      </c>
+      <c r="P33">
+        <v>4.729702272000001</v>
+      </c>
+      <c r="Q33">
+        <v>11.749702272</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.09447997606992802</v>
+      </c>
+      <c r="T33">
+        <v>1.192959105222379</v>
+      </c>
+      <c r="U33">
+        <v>0.0178</v>
+      </c>
+      <c r="V33">
+        <v>0.18</v>
+      </c>
+      <c r="W33">
+        <v>0.014596</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>12.26393870842759</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.06965685780907339</v>
+      </c>
+      <c r="C34">
+        <v>71.79974473237215</v>
+      </c>
+      <c r="D34">
+        <v>87.79574473237214</v>
+      </c>
+      <c r="E34">
+        <v>-17.604</v>
+      </c>
+      <c r="F34">
+        <v>29.696</v>
+      </c>
+      <c r="G34">
+        <v>13.7</v>
+      </c>
+      <c r="H34">
+        <v>45.5</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>13.3</v>
+      </c>
+      <c r="K34">
+        <v>7.02</v>
+      </c>
+      <c r="L34">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M34">
+        <v>0.5285888</v>
+      </c>
+      <c r="N34">
+        <v>5.751411200000002</v>
+      </c>
+      <c r="O34">
+        <v>1.035254016</v>
+      </c>
+      <c r="P34">
+        <v>4.716157184000001</v>
+      </c>
+      <c r="Q34">
+        <v>11.736157184</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.09556784971922558</v>
+      </c>
+      <c r="T34">
+        <v>1.208194948611154</v>
+      </c>
+      <c r="U34">
+        <v>0.0178</v>
+      </c>
+      <c r="V34">
+        <v>0.18</v>
+      </c>
+      <c r="W34">
+        <v>0.014596</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>11.88069062378923</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.06959777212989647</v>
+      </c>
+      <c r="C35">
+        <v>70.93738576232249</v>
+      </c>
+      <c r="D35">
+        <v>87.86138576232248</v>
+      </c>
+      <c r="E35">
+        <v>-16.676</v>
+      </c>
+      <c r="F35">
+        <v>30.624</v>
+      </c>
+      <c r="G35">
+        <v>13.7</v>
+      </c>
+      <c r="H35">
+        <v>45.5</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>13.3</v>
+      </c>
+      <c r="K35">
+        <v>7.02</v>
+      </c>
+      <c r="L35">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M35">
+        <v>0.5451072</v>
+      </c>
+      <c r="N35">
+        <v>5.734892800000001</v>
+      </c>
+      <c r="O35">
+        <v>1.032280704</v>
+      </c>
+      <c r="P35">
+        <v>4.702612096000001</v>
+      </c>
+      <c r="Q35">
+        <v>11.722612096</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.09668819720880072</v>
+      </c>
+      <c r="T35">
+        <v>1.223885593295117</v>
+      </c>
+      <c r="U35">
+        <v>0.0178</v>
+      </c>
+      <c r="V35">
+        <v>0.18</v>
+      </c>
+      <c r="W35">
+        <v>0.014596</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>11.52066969579562</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.06953868645071955</v>
+      </c>
+      <c r="C36">
+        <v>70.07512501955472</v>
+      </c>
+      <c r="D36">
+        <v>87.92712501955471</v>
+      </c>
+      <c r="E36">
+        <v>-15.748</v>
+      </c>
+      <c r="F36">
+        <v>31.552</v>
+      </c>
+      <c r="G36">
+        <v>13.7</v>
+      </c>
+      <c r="H36">
+        <v>45.5</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>13.3</v>
+      </c>
+      <c r="K36">
+        <v>7.02</v>
+      </c>
+      <c r="L36">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M36">
+        <v>0.5616255999999999</v>
+      </c>
+      <c r="N36">
+        <v>5.718374400000001</v>
+      </c>
+      <c r="O36">
+        <v>1.029307392</v>
+      </c>
+      <c r="P36">
+        <v>4.689067008</v>
+      </c>
+      <c r="Q36">
+        <v>11.709067008</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.09784249462230235</v>
+      </c>
+      <c r="T36">
+        <v>1.240051712060412</v>
+      </c>
+      <c r="U36">
+        <v>0.0178</v>
+      </c>
+      <c r="V36">
+        <v>0.18</v>
+      </c>
+      <c r="W36">
+        <v>0.014596</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>11.18182646944869</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.06947960077154262</v>
+      </c>
+      <c r="C37">
+        <v>69.21296272471947</v>
+      </c>
+      <c r="D37">
+        <v>87.99296272471948</v>
+      </c>
+      <c r="E37">
+        <v>-14.81999999999999</v>
+      </c>
+      <c r="F37">
+        <v>32.48</v>
+      </c>
+      <c r="G37">
+        <v>13.7</v>
+      </c>
+      <c r="H37">
+        <v>45.5</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>13.3</v>
+      </c>
+      <c r="K37">
+        <v>7.02</v>
+      </c>
+      <c r="L37">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M37">
+        <v>0.5781440000000001</v>
+      </c>
+      <c r="N37">
+        <v>5.701856000000001</v>
+      </c>
+      <c r="O37">
+        <v>1.02633408</v>
+      </c>
+      <c r="P37">
+        <v>4.675521920000001</v>
+      </c>
+      <c r="Q37">
+        <v>11.69552192</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.09903230887929636</v>
+      </c>
+      <c r="T37">
+        <v>1.256715249864639</v>
+      </c>
+      <c r="U37">
+        <v>0.0178</v>
+      </c>
+      <c r="V37">
+        <v>0.18</v>
+      </c>
+      <c r="W37">
+        <v>0.014596</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>10.86234571317872</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.0700699550923657</v>
+      </c>
+      <c r="C38">
+        <v>67.63154150570853</v>
+      </c>
+      <c r="D38">
+        <v>87.33954150570852</v>
+      </c>
+      <c r="E38">
+        <v>-13.892</v>
+      </c>
+      <c r="F38">
+        <v>33.408</v>
+      </c>
+      <c r="G38">
+        <v>13.7</v>
+      </c>
+      <c r="H38">
+        <v>45.5</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>13.3</v>
+      </c>
+      <c r="K38">
+        <v>7.02</v>
+      </c>
+      <c r="L38">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M38">
+        <v>0.66816</v>
+      </c>
+      <c r="N38">
+        <v>5.611840000000001</v>
+      </c>
+      <c r="O38">
+        <v>1.0101312</v>
+      </c>
+      <c r="P38">
+        <v>4.601708800000001</v>
+      </c>
+      <c r="Q38">
+        <v>11.6217088</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1002593048318214</v>
+      </c>
+      <c r="T38">
+        <v>1.273899523225248</v>
+      </c>
+      <c r="U38">
+        <v>0.02</v>
+      </c>
+      <c r="V38">
+        <v>0.18</v>
+      </c>
+      <c r="W38">
+        <v>0.0164</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>9.398946360153259</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.07002890941318878</v>
+      </c>
+      <c r="C39">
+        <v>66.74865798313149</v>
+      </c>
+      <c r="D39">
+        <v>87.38465798313149</v>
+      </c>
+      <c r="E39">
+        <v>-12.964</v>
+      </c>
+      <c r="F39">
+        <v>34.336</v>
+      </c>
+      <c r="G39">
+        <v>13.7</v>
+      </c>
+      <c r="H39">
+        <v>45.5</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>13.3</v>
+      </c>
+      <c r="K39">
+        <v>7.02</v>
+      </c>
+      <c r="L39">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M39">
+        <v>0.6867199999999999</v>
+      </c>
+      <c r="N39">
+        <v>5.593280000000001</v>
+      </c>
+      <c r="O39">
+        <v>1.0067904</v>
+      </c>
+      <c r="P39">
+        <v>4.586489600000001</v>
+      </c>
+      <c r="Q39">
+        <v>11.6064896</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1015252530368076</v>
+      </c>
+      <c r="T39">
+        <v>1.291629329073495</v>
+      </c>
+      <c r="U39">
+        <v>0.02</v>
+      </c>
+      <c r="V39">
+        <v>0.18</v>
+      </c>
+      <c r="W39">
+        <v>0.0164</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>9.14492078285182</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.06998786373401186</v>
+      </c>
+      <c r="C40">
+        <v>65.86582109575559</v>
+      </c>
+      <c r="D40">
+        <v>87.42982109575559</v>
+      </c>
+      <c r="E40">
+        <v>-12.036</v>
+      </c>
+      <c r="F40">
+        <v>35.264</v>
+      </c>
+      <c r="G40">
+        <v>13.7</v>
+      </c>
+      <c r="H40">
+        <v>45.5</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>13.3</v>
+      </c>
+      <c r="K40">
+        <v>7.02</v>
+      </c>
+      <c r="L40">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M40">
+        <v>0.7052799999999998</v>
+      </c>
+      <c r="N40">
+        <v>5.574720000000001</v>
+      </c>
+      <c r="O40">
+        <v>1.0034496</v>
+      </c>
+      <c r="P40">
+        <v>4.571270400000001</v>
+      </c>
+      <c r="Q40">
+        <v>11.5912704</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1028320382806643</v>
+      </c>
+      <c r="T40">
+        <v>1.309931064142654</v>
+      </c>
+      <c r="U40">
+        <v>0.02</v>
+      </c>
+      <c r="V40">
+        <v>0.18</v>
+      </c>
+      <c r="W40">
+        <v>0.0164</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>8.904264972776772</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.06994681805483494</v>
+      </c>
+      <c r="C41">
+        <v>64.98303091592581</v>
+      </c>
+      <c r="D41">
+        <v>87.4750309159258</v>
+      </c>
+      <c r="E41">
+        <v>-11.108</v>
+      </c>
+      <c r="F41">
+        <v>36.192</v>
+      </c>
+      <c r="G41">
+        <v>13.7</v>
+      </c>
+      <c r="H41">
+        <v>45.5</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>13.3</v>
+      </c>
+      <c r="K41">
+        <v>7.02</v>
+      </c>
+      <c r="L41">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M41">
+        <v>0.7238399999999999</v>
+      </c>
+      <c r="N41">
+        <v>5.556160000000001</v>
+      </c>
+      <c r="O41">
+        <v>1.0001088</v>
+      </c>
+      <c r="P41">
+        <v>4.556051200000001</v>
+      </c>
+      <c r="Q41">
+        <v>11.5760512</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1041816689423524</v>
+      </c>
+      <c r="T41">
+        <v>1.328832856099326</v>
+      </c>
+      <c r="U41">
+        <v>0.02</v>
+      </c>
+      <c r="V41">
+        <v>0.18</v>
+      </c>
+      <c r="W41">
+        <v>0.0164</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>8.675950486295317</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.06990577237565801</v>
+      </c>
+      <c r="C42">
+        <v>64.1002875161368</v>
+      </c>
+      <c r="D42">
+        <v>87.52028751613679</v>
+      </c>
+      <c r="E42">
+        <v>-10.18</v>
+      </c>
+      <c r="F42">
+        <v>37.12</v>
+      </c>
+      <c r="G42">
+        <v>13.7</v>
+      </c>
+      <c r="H42">
+        <v>45.5</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>13.3</v>
+      </c>
+      <c r="K42">
+        <v>7.02</v>
+      </c>
+      <c r="L42">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M42">
+        <v>0.7423999999999998</v>
+      </c>
+      <c r="N42">
+        <v>5.537600000000001</v>
+      </c>
+      <c r="O42">
+        <v>0.9967680000000002</v>
+      </c>
+      <c r="P42">
+        <v>4.540832000000001</v>
+      </c>
+      <c r="Q42">
+        <v>11.560832</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1055762872927634</v>
+      </c>
+      <c r="T42">
+        <v>1.348364707787887</v>
+      </c>
+      <c r="U42">
+        <v>0.02</v>
+      </c>
+      <c r="V42">
+        <v>0.18</v>
+      </c>
+      <c r="W42">
+        <v>0.0164</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>8.459051724137934</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.06986472669648108</v>
+      </c>
+      <c r="C43">
+        <v>63.21759096903337</v>
+      </c>
+      <c r="D43">
+        <v>87.56559096903337</v>
+      </c>
+      <c r="E43">
+        <v>-9.251999999999995</v>
+      </c>
+      <c r="F43">
+        <v>38.048</v>
+      </c>
+      <c r="G43">
+        <v>13.7</v>
+      </c>
+      <c r="H43">
+        <v>45.5</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>13.3</v>
+      </c>
+      <c r="K43">
+        <v>7.02</v>
+      </c>
+      <c r="L43">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M43">
+        <v>0.76096</v>
+      </c>
+      <c r="N43">
+        <v>5.519040000000001</v>
+      </c>
+      <c r="O43">
+        <v>0.9934272000000002</v>
+      </c>
+      <c r="P43">
+        <v>4.525612800000001</v>
+      </c>
+      <c r="Q43">
+        <v>11.5456128</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1070181808414934</v>
+      </c>
+      <c r="T43">
+        <v>1.368558656143857</v>
+      </c>
+      <c r="U43">
+        <v>0.02</v>
+      </c>
+      <c r="V43">
+        <v>0.18</v>
+      </c>
+      <c r="W43">
+        <v>0.0164</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>8.252733389402861</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.06982368101730418</v>
+      </c>
+      <c r="C44">
+        <v>62.33494134741075</v>
+      </c>
+      <c r="D44">
+        <v>87.61094134741074</v>
+      </c>
+      <c r="E44">
+        <v>-8.323999999999998</v>
+      </c>
+      <c r="F44">
+        <v>38.976</v>
+      </c>
+      <c r="G44">
+        <v>13.7</v>
+      </c>
+      <c r="H44">
+        <v>45.5</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>13.3</v>
+      </c>
+      <c r="K44">
+        <v>7.02</v>
+      </c>
+      <c r="L44">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M44">
+        <v>0.7795199999999999</v>
+      </c>
+      <c r="N44">
+        <v>5.500480000000001</v>
+      </c>
+      <c r="O44">
+        <v>0.9900864000000003</v>
+      </c>
+      <c r="P44">
+        <v>4.510393600000001</v>
+      </c>
+      <c r="Q44">
+        <v>11.5303936</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.108509794857421</v>
+      </c>
+      <c r="T44">
+        <v>1.389448947546585</v>
+      </c>
+      <c r="U44">
+        <v>0.02</v>
+      </c>
+      <c r="V44">
+        <v>0.18</v>
+      </c>
+      <c r="W44">
+        <v>0.0164</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>8.056239737274222</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.07017049533812725</v>
+      </c>
+      <c r="C45">
+        <v>61.02522652060726</v>
+      </c>
+      <c r="D45">
+        <v>87.22922652060726</v>
+      </c>
+      <c r="E45">
+        <v>-7.396000000000001</v>
+      </c>
+      <c r="F45">
+        <v>39.904</v>
+      </c>
+      <c r="G45">
+        <v>13.7</v>
+      </c>
+      <c r="H45">
+        <v>45.5</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>13.3</v>
+      </c>
+      <c r="K45">
+        <v>7.02</v>
+      </c>
+      <c r="L45">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M45">
+        <v>0.8419743999999999</v>
+      </c>
+      <c r="N45">
+        <v>5.438025600000001</v>
+      </c>
+      <c r="O45">
+        <v>0.9788446080000002</v>
+      </c>
+      <c r="P45">
+        <v>4.459180992000001</v>
+      </c>
+      <c r="Q45">
+        <v>11.479180992</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1100537462072408</v>
+      </c>
+      <c r="T45">
+        <v>1.411072231630109</v>
+      </c>
+      <c r="U45">
+        <v>0.0211</v>
+      </c>
+      <c r="V45">
+        <v>0.18</v>
+      </c>
+      <c r="W45">
+        <v>0.017302</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>7.458659075620353</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.07013846965895033</v>
+      </c>
+      <c r="C46">
+        <v>60.1323355477389</v>
+      </c>
+      <c r="D46">
+        <v>87.2643355477389</v>
+      </c>
+      <c r="E46">
+        <v>-6.467999999999996</v>
+      </c>
+      <c r="F46">
+        <v>40.832</v>
+      </c>
+      <c r="G46">
+        <v>13.7</v>
+      </c>
+      <c r="H46">
+        <v>45.5</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>13.3</v>
+      </c>
+      <c r="K46">
+        <v>7.02</v>
+      </c>
+      <c r="L46">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M46">
+        <v>0.8615552000000001</v>
+      </c>
+      <c r="N46">
+        <v>5.418444800000001</v>
+      </c>
+      <c r="O46">
+        <v>0.9753200640000003</v>
+      </c>
+      <c r="P46">
+        <v>4.443124736000001</v>
+      </c>
+      <c r="Q46">
+        <v>11.463124736</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.111652838676697</v>
+      </c>
+      <c r="T46">
+        <v>1.433467775859475</v>
+      </c>
+      <c r="U46">
+        <v>0.0211</v>
+      </c>
+      <c r="V46">
+        <v>0.18</v>
+      </c>
+      <c r="W46">
+        <v>0.017302</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>7.289144096628981</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.07010644397977341</v>
+      </c>
+      <c r="C47">
+        <v>59.23947284842436</v>
+      </c>
+      <c r="D47">
+        <v>87.29947284842436</v>
+      </c>
+      <c r="E47">
+        <v>-5.539999999999999</v>
+      </c>
+      <c r="F47">
+        <v>41.76</v>
+      </c>
+      <c r="G47">
+        <v>13.7</v>
+      </c>
+      <c r="H47">
+        <v>45.5</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>13.3</v>
+      </c>
+      <c r="K47">
+        <v>7.02</v>
+      </c>
+      <c r="L47">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M47">
+        <v>0.881136</v>
+      </c>
+      <c r="N47">
+        <v>5.398864000000001</v>
+      </c>
+      <c r="O47">
+        <v>0.9717955200000002</v>
+      </c>
+      <c r="P47">
+        <v>4.427068480000001</v>
+      </c>
+      <c r="Q47">
+        <v>11.44706848</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1133100799632244</v>
+      </c>
+      <c r="T47">
+        <v>1.456677703515362</v>
+      </c>
+      <c r="U47">
+        <v>0.0211</v>
+      </c>
+      <c r="V47">
+        <v>0.18</v>
+      </c>
+      <c r="W47">
+        <v>0.017302</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>7.127163116703893</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.07007441830059649</v>
+      </c>
+      <c r="C48">
+        <v>58.34663845683072</v>
+      </c>
+      <c r="D48">
+        <v>87.33463845683072</v>
+      </c>
+      <c r="E48">
+        <v>-4.611999999999995</v>
+      </c>
+      <c r="F48">
+        <v>42.688</v>
+      </c>
+      <c r="G48">
+        <v>13.7</v>
+      </c>
+      <c r="H48">
+        <v>45.5</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>13.3</v>
+      </c>
+      <c r="K48">
+        <v>7.02</v>
+      </c>
+      <c r="L48">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M48">
+        <v>0.9007168000000001</v>
+      </c>
+      <c r="N48">
+        <v>5.379283200000001</v>
+      </c>
+      <c r="O48">
+        <v>0.9682709760000002</v>
+      </c>
+      <c r="P48">
+        <v>4.411012224000001</v>
+      </c>
+      <c r="Q48">
+        <v>11.431012224</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1150287005566601</v>
+      </c>
+      <c r="T48">
+        <v>1.480747258121468</v>
+      </c>
+      <c r="U48">
+        <v>0.0211</v>
+      </c>
+      <c r="V48">
+        <v>0.18</v>
+      </c>
+      <c r="W48">
+        <v>0.017302</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>6.972224788079894</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.07004239262141956</v>
+      </c>
+      <c r="C49">
+        <v>57.45383240718016</v>
+      </c>
+      <c r="D49">
+        <v>87.36983240718016</v>
+      </c>
+      <c r="E49">
+        <v>-3.683999999999997</v>
+      </c>
+      <c r="F49">
+        <v>43.616</v>
+      </c>
+      <c r="G49">
+        <v>13.7</v>
+      </c>
+      <c r="H49">
+        <v>45.5</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>13.3</v>
+      </c>
+      <c r="K49">
+        <v>7.02</v>
+      </c>
+      <c r="L49">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M49">
+        <v>0.9202976</v>
+      </c>
+      <c r="N49">
+        <v>5.359702400000002</v>
+      </c>
+      <c r="O49">
+        <v>0.9647464320000002</v>
+      </c>
+      <c r="P49">
+        <v>4.394955968000001</v>
+      </c>
+      <c r="Q49">
+        <v>11.414955968</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1168121747573954</v>
+      </c>
+      <c r="T49">
+        <v>1.505725097807049</v>
+      </c>
+      <c r="U49">
+        <v>0.0211</v>
+      </c>
+      <c r="V49">
+        <v>0.18</v>
+      </c>
+      <c r="W49">
+        <v>0.017302</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>6.823879579822876</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.07001036694224264</v>
+      </c>
+      <c r="C50">
+        <v>56.56105473375005</v>
+      </c>
+      <c r="D50">
+        <v>87.40505473375005</v>
+      </c>
+      <c r="E50">
+        <v>-2.756</v>
+      </c>
+      <c r="F50">
+        <v>44.544</v>
+      </c>
+      <c r="G50">
+        <v>13.7</v>
+      </c>
+      <c r="H50">
+        <v>45.5</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>13.3</v>
+      </c>
+      <c r="K50">
+        <v>7.02</v>
+      </c>
+      <c r="L50">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M50">
+        <v>0.9398784</v>
+      </c>
+      <c r="N50">
+        <v>5.340121600000002</v>
+      </c>
+      <c r="O50">
+        <v>0.9612218880000003</v>
+      </c>
+      <c r="P50">
+        <v>4.378899712000001</v>
+      </c>
+      <c r="Q50">
+        <v>11.398899712</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1186642441196974</v>
+      </c>
+      <c r="T50">
+        <v>1.531663623634383</v>
+      </c>
+      <c r="U50">
+        <v>0.0211</v>
+      </c>
+      <c r="V50">
+        <v>0.18</v>
+      </c>
+      <c r="W50">
+        <v>0.017302</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>6.6817154219099</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.06997834126306571</v>
+      </c>
+      <c r="C51">
+        <v>55.66830547087306</v>
+      </c>
+      <c r="D51">
+        <v>87.44030547087306</v>
+      </c>
+      <c r="E51">
+        <v>-1.827999999999996</v>
+      </c>
+      <c r="F51">
+        <v>45.472</v>
+      </c>
+      <c r="G51">
+        <v>13.7</v>
+      </c>
+      <c r="H51">
+        <v>45.5</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>13.3</v>
+      </c>
+      <c r="K51">
+        <v>7.02</v>
+      </c>
+      <c r="L51">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M51">
+        <v>0.9594592000000001</v>
+      </c>
+      <c r="N51">
+        <v>5.320540800000001</v>
+      </c>
+      <c r="O51">
+        <v>0.9576973440000001</v>
+      </c>
+      <c r="P51">
+        <v>4.362843456</v>
+      </c>
+      <c r="Q51">
+        <v>11.382843456</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.12058894365307</v>
+      </c>
+      <c r="T51">
+        <v>1.558619346552986</v>
+      </c>
+      <c r="U51">
+        <v>0.0211</v>
+      </c>
+      <c r="V51">
+        <v>0.18</v>
+      </c>
+      <c r="W51">
+        <v>0.017302</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>6.545353882687247</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.07056131558388878</v>
+      </c>
+      <c r="C52">
+        <v>54.1030439652998</v>
+      </c>
+      <c r="D52">
+        <v>86.80304396529979</v>
+      </c>
+      <c r="E52">
+        <v>-0.8999999999999986</v>
+      </c>
+      <c r="F52">
+        <v>46.4</v>
+      </c>
+      <c r="G52">
+        <v>13.7</v>
+      </c>
+      <c r="H52">
+        <v>45.5</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>13.3</v>
+      </c>
+      <c r="K52">
+        <v>7.02</v>
+      </c>
+      <c r="L52">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M52">
+        <v>1.04864</v>
+      </c>
+      <c r="N52">
+        <v>5.231360000000001</v>
+      </c>
+      <c r="O52">
+        <v>0.9416448000000002</v>
+      </c>
+      <c r="P52">
+        <v>4.289715200000002</v>
+      </c>
+      <c r="Q52">
+        <v>11.3097152</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1225906311677776</v>
+      </c>
+      <c r="T52">
+        <v>1.586653298388333</v>
+      </c>
+      <c r="U52">
+        <v>0.0226</v>
+      </c>
+      <c r="V52">
+        <v>0.18</v>
+      </c>
+      <c r="W52">
+        <v>0.018532</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>5.988709185230396</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.07054158990471188</v>
+      </c>
+      <c r="C53">
+        <v>53.19645465333114</v>
+      </c>
+      <c r="D53">
+        <v>86.82445465333113</v>
+      </c>
+      <c r="E53">
+        <v>0.02799999999999869</v>
+      </c>
+      <c r="F53">
+        <v>47.328</v>
+      </c>
+      <c r="G53">
+        <v>13.7</v>
+      </c>
+      <c r="H53">
+        <v>45.5</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>13.3</v>
+      </c>
+      <c r="K53">
+        <v>7.02</v>
+      </c>
+      <c r="L53">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M53">
+        <v>1.0696128</v>
+      </c>
+      <c r="N53">
+        <v>5.210387200000001</v>
+      </c>
+      <c r="O53">
+        <v>0.9378696960000003</v>
+      </c>
+      <c r="P53">
+        <v>4.272517504000001</v>
+      </c>
+      <c r="Q53">
+        <v>11.292517504</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1246740202136977</v>
+      </c>
+      <c r="T53">
+        <v>1.615831493155734</v>
+      </c>
+      <c r="U53">
+        <v>0.0226</v>
+      </c>
+      <c r="V53">
+        <v>0.18</v>
+      </c>
+      <c r="W53">
+        <v>0.018532</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>5.87128351493176</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.07052186422553494</v>
+      </c>
+      <c r="C54">
+        <v>52.28987590621465</v>
+      </c>
+      <c r="D54">
+        <v>86.84587590621464</v>
+      </c>
+      <c r="E54">
+        <v>0.9560000000000031</v>
+      </c>
+      <c r="F54">
+        <v>48.256</v>
+      </c>
+      <c r="G54">
+        <v>13.7</v>
+      </c>
+      <c r="H54">
+        <v>45.5</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>13.3</v>
+      </c>
+      <c r="K54">
+        <v>7.02</v>
+      </c>
+      <c r="L54">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M54">
+        <v>1.0905856</v>
+      </c>
+      <c r="N54">
+        <v>5.189414400000001</v>
+      </c>
+      <c r="O54">
+        <v>0.9340945920000002</v>
+      </c>
+      <c r="P54">
+        <v>4.255319808000001</v>
+      </c>
+      <c r="Q54">
+        <v>11.275319808</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1268442171365311</v>
+      </c>
+      <c r="T54">
+        <v>1.646225446038444</v>
+      </c>
+      <c r="U54">
+        <v>0.0226</v>
+      </c>
+      <c r="V54">
+        <v>0.18</v>
+      </c>
+      <c r="W54">
+        <v>0.018532</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>5.758374216567687</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.07050213854635802</v>
+      </c>
+      <c r="C55">
+        <v>51.38330773177186</v>
+      </c>
+      <c r="D55">
+        <v>86.86730773177186</v>
+      </c>
+      <c r="E55">
+        <v>1.884</v>
+      </c>
+      <c r="F55">
+        <v>49.184</v>
+      </c>
+      <c r="G55">
+        <v>13.7</v>
+      </c>
+      <c r="H55">
+        <v>45.5</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>13.3</v>
+      </c>
+      <c r="K55">
+        <v>7.02</v>
+      </c>
+      <c r="L55">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M55">
+        <v>1.1115584</v>
+      </c>
+      <c r="N55">
+        <v>5.168441600000001</v>
+      </c>
+      <c r="O55">
+        <v>0.9303194880000002</v>
+      </c>
+      <c r="P55">
+        <v>4.238122112000001</v>
+      </c>
+      <c r="Q55">
+        <v>11.258122112</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1291067628645915</v>
+      </c>
+      <c r="T55">
+        <v>1.67791275861829</v>
+      </c>
+      <c r="U55">
+        <v>0.0226</v>
+      </c>
+      <c r="V55">
+        <v>0.18</v>
+      </c>
+      <c r="W55">
+        <v>0.018532</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>5.64972564644377</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.07048241286718109</v>
+      </c>
+      <c r="C56">
+        <v>50.47675013783212</v>
+      </c>
+      <c r="D56">
+        <v>86.88875013783212</v>
+      </c>
+      <c r="E56">
+        <v>2.812000000000005</v>
+      </c>
+      <c r="F56">
+        <v>50.112</v>
+      </c>
+      <c r="G56">
+        <v>13.7</v>
+      </c>
+      <c r="H56">
+        <v>45.5</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>13.3</v>
+      </c>
+      <c r="K56">
+        <v>7.02</v>
+      </c>
+      <c r="L56">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M56">
+        <v>1.1325312</v>
+      </c>
+      <c r="N56">
+        <v>5.147468800000001</v>
+      </c>
+      <c r="O56">
+        <v>0.9265443840000002</v>
+      </c>
+      <c r="P56">
+        <v>4.220924416000001</v>
+      </c>
+      <c r="Q56">
+        <v>11.240924416</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1314676801460458</v>
+      </c>
+      <c r="T56">
+        <v>1.710977780440739</v>
+      </c>
+      <c r="U56">
+        <v>0.0226</v>
+      </c>
+      <c r="V56">
+        <v>0.18</v>
+      </c>
+      <c r="W56">
+        <v>0.018532</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>5.54510109743555</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.07046268718800416</v>
+      </c>
+      <c r="C57">
+        <v>49.57020313223246</v>
+      </c>
+      <c r="D57">
+        <v>86.91020313223245</v>
+      </c>
+      <c r="E57">
+        <v>3.740000000000002</v>
+      </c>
+      <c r="F57">
+        <v>51.04</v>
+      </c>
+      <c r="G57">
+        <v>13.7</v>
+      </c>
+      <c r="H57">
+        <v>45.5</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>13.3</v>
+      </c>
+      <c r="K57">
+        <v>7.02</v>
+      </c>
+      <c r="L57">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M57">
+        <v>1.153504</v>
+      </c>
+      <c r="N57">
+        <v>5.126496000000001</v>
+      </c>
+      <c r="O57">
+        <v>0.9227692800000002</v>
+      </c>
+      <c r="P57">
+        <v>4.203726720000001</v>
+      </c>
+      <c r="Q57">
+        <v>11.22372672</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1339335270844537</v>
+      </c>
+      <c r="T57">
+        <v>1.74551235878863</v>
+      </c>
+      <c r="U57">
+        <v>0.0226</v>
+      </c>
+      <c r="V57">
+        <v>0.18</v>
+      </c>
+      <c r="W57">
+        <v>0.018532</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>5.444281077482177</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.07044296150882726</v>
+      </c>
+      <c r="C58">
+        <v>48.66366672281757</v>
+      </c>
+      <c r="D58">
+        <v>86.93166672281757</v>
+      </c>
+      <c r="E58">
+        <v>4.668000000000006</v>
+      </c>
+      <c r="F58">
+        <v>51.968</v>
+      </c>
+      <c r="G58">
+        <v>13.7</v>
+      </c>
+      <c r="H58">
+        <v>45.5</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>13.3</v>
+      </c>
+      <c r="K58">
+        <v>7.02</v>
+      </c>
+      <c r="L58">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M58">
+        <v>1.1744768</v>
+      </c>
+      <c r="N58">
+        <v>5.105523200000001</v>
+      </c>
+      <c r="O58">
+        <v>0.9189941760000002</v>
+      </c>
+      <c r="P58">
+        <v>4.186529024000001</v>
+      </c>
+      <c r="Q58">
+        <v>11.206529024</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1365114579746074</v>
+      </c>
+      <c r="T58">
+        <v>1.781616690697788</v>
+      </c>
+      <c r="U58">
+        <v>0.0226</v>
+      </c>
+      <c r="V58">
+        <v>0.18</v>
+      </c>
+      <c r="W58">
+        <v>0.018532</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>5.347061772527138</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.07042323582965032</v>
+      </c>
+      <c r="C59">
+        <v>47.75714091744013</v>
+      </c>
+      <c r="D59">
+        <v>86.95314091744012</v>
+      </c>
+      <c r="E59">
+        <v>5.596000000000004</v>
+      </c>
+      <c r="F59">
+        <v>52.896</v>
+      </c>
+      <c r="G59">
+        <v>13.7</v>
+      </c>
+      <c r="H59">
+        <v>45.5</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>13.3</v>
+      </c>
+      <c r="K59">
+        <v>7.02</v>
+      </c>
+      <c r="L59">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M59">
+        <v>1.1954496</v>
+      </c>
+      <c r="N59">
+        <v>5.084550400000001</v>
+      </c>
+      <c r="O59">
+        <v>0.9152190720000002</v>
+      </c>
+      <c r="P59">
+        <v>4.169331328000001</v>
+      </c>
+      <c r="Q59">
+        <v>11.189331328</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1392092926270938</v>
+      </c>
+      <c r="T59">
+        <v>1.819400293858535</v>
+      </c>
+      <c r="U59">
+        <v>0.0226</v>
+      </c>
+      <c r="V59">
+        <v>0.18</v>
+      </c>
+      <c r="W59">
+        <v>0.018532</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>5.253253671254733</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.07040351015047341</v>
+      </c>
+      <c r="C60">
+        <v>46.85062572396032</v>
+      </c>
+      <c r="D60">
+        <v>86.97462572396032</v>
+      </c>
+      <c r="E60">
+        <v>6.524000000000001</v>
+      </c>
+      <c r="F60">
+        <v>53.824</v>
+      </c>
+      <c r="G60">
+        <v>13.7</v>
+      </c>
+      <c r="H60">
+        <v>45.5</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>13.3</v>
+      </c>
+      <c r="K60">
+        <v>7.02</v>
+      </c>
+      <c r="L60">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M60">
+        <v>1.2164224</v>
+      </c>
+      <c r="N60">
+        <v>5.063577600000001</v>
+      </c>
+      <c r="O60">
+        <v>0.9114439680000002</v>
+      </c>
+      <c r="P60">
+        <v>4.152133632000001</v>
+      </c>
+      <c r="Q60">
+        <v>11.172133632</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1420355955963652</v>
+      </c>
+      <c r="T60">
+        <v>1.858983116217413</v>
+      </c>
+      <c r="U60">
+        <v>0.0226</v>
+      </c>
+      <c r="V60">
+        <v>0.18</v>
+      </c>
+      <c r="W60">
+        <v>0.018532</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>5.162680332095168</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.07038378447129648</v>
+      </c>
+      <c r="C61">
+        <v>45.94412115024626</v>
+      </c>
+      <c r="D61">
+        <v>86.99612115024625</v>
+      </c>
+      <c r="E61">
+        <v>7.451999999999998</v>
+      </c>
+      <c r="F61">
+        <v>54.752</v>
+      </c>
+      <c r="G61">
+        <v>13.7</v>
+      </c>
+      <c r="H61">
+        <v>45.5</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>13.3</v>
+      </c>
+      <c r="K61">
+        <v>7.02</v>
+      </c>
+      <c r="L61">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M61">
+        <v>1.2373952</v>
+      </c>
+      <c r="N61">
+        <v>5.042604800000001</v>
+      </c>
+      <c r="O61">
+        <v>0.9076688640000001</v>
+      </c>
+      <c r="P61">
+        <v>4.134935936000002</v>
+      </c>
+      <c r="Q61">
+        <v>11.154935936</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1449997670031621</v>
+      </c>
+      <c r="T61">
+        <v>1.900496807959651</v>
+      </c>
+      <c r="U61">
+        <v>0.0226</v>
+      </c>
+      <c r="V61">
+        <v>0.18</v>
+      </c>
+      <c r="W61">
+        <v>0.018532</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>5.075177275618979</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.07036405879211954</v>
+      </c>
+      <c r="C62">
+        <v>45.03762720417377</v>
+      </c>
+      <c r="D62">
+        <v>87.01762720417376</v>
+      </c>
+      <c r="E62">
+        <v>8.380000000000003</v>
+      </c>
+      <c r="F62">
+        <v>55.68</v>
+      </c>
+      <c r="G62">
+        <v>13.7</v>
+      </c>
+      <c r="H62">
+        <v>45.5</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>13.3</v>
+      </c>
+      <c r="K62">
+        <v>7.02</v>
+      </c>
+      <c r="L62">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M62">
+        <v>1.258368</v>
+      </c>
+      <c r="N62">
+        <v>5.021632000000001</v>
+      </c>
+      <c r="O62">
+        <v>0.9038937600000002</v>
+      </c>
+      <c r="P62">
+        <v>4.117738240000001</v>
+      </c>
+      <c r="Q62">
+        <v>11.13773824</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1481121469802989</v>
+      </c>
+      <c r="T62">
+        <v>1.944086184289001</v>
+      </c>
+      <c r="U62">
+        <v>0.0226</v>
+      </c>
+      <c r="V62">
+        <v>0.18</v>
+      </c>
+      <c r="W62">
+        <v>0.018532</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>4.990590987691996</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.07034433311294265</v>
+      </c>
+      <c r="C63">
+        <v>44.13114389362647</v>
+      </c>
+      <c r="D63">
+        <v>87.03914389362646</v>
+      </c>
+      <c r="E63">
+        <v>9.308</v>
+      </c>
+      <c r="F63">
+        <v>56.608</v>
+      </c>
+      <c r="G63">
+        <v>13.7</v>
+      </c>
+      <c r="H63">
+        <v>45.5</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>13.3</v>
+      </c>
+      <c r="K63">
+        <v>7.02</v>
+      </c>
+      <c r="L63">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M63">
+        <v>1.2793408</v>
+      </c>
+      <c r="N63">
+        <v>5.000659200000001</v>
+      </c>
+      <c r="O63">
+        <v>0.9001186560000002</v>
+      </c>
+      <c r="P63">
+        <v>4.100540544000001</v>
+      </c>
+      <c r="Q63">
+        <v>11.120540544</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1513841361870324</v>
+      </c>
+      <c r="T63">
+        <v>1.989910913250625</v>
+      </c>
+      <c r="U63">
+        <v>0.0226</v>
+      </c>
+      <c r="V63">
+        <v>0.18</v>
+      </c>
+      <c r="W63">
+        <v>0.018532</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>4.908778020680652</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.0703246074337657</v>
+      </c>
+      <c r="C64">
+        <v>43.22467122649583</v>
+      </c>
+      <c r="D64">
+        <v>87.06067122649583</v>
+      </c>
+      <c r="E64">
+        <v>10.236</v>
+      </c>
+      <c r="F64">
+        <v>57.536</v>
+      </c>
+      <c r="G64">
+        <v>13.7</v>
+      </c>
+      <c r="H64">
+        <v>45.5</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>13.3</v>
+      </c>
+      <c r="K64">
+        <v>7.02</v>
+      </c>
+      <c r="L64">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M64">
+        <v>1.3003136</v>
+      </c>
+      <c r="N64">
+        <v>4.979686400000001</v>
+      </c>
+      <c r="O64">
+        <v>0.8963435520000002</v>
+      </c>
+      <c r="P64">
+        <v>4.083342848000001</v>
+      </c>
+      <c r="Q64">
+        <v>11.103342848</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.154828335352015</v>
+      </c>
+      <c r="T64">
+        <v>2.038147470052334</v>
+      </c>
+      <c r="U64">
+        <v>0.0226</v>
+      </c>
+      <c r="V64">
+        <v>0.18</v>
+      </c>
+      <c r="W64">
+        <v>0.018532</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>4.829604181637415</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.07030488175458879</v>
+      </c>
+      <c r="C65">
+        <v>42.31820921068103</v>
+      </c>
+      <c r="D65">
+        <v>87.08220921068103</v>
+      </c>
+      <c r="E65">
+        <v>11.164</v>
+      </c>
+      <c r="F65">
+        <v>58.464</v>
+      </c>
+      <c r="G65">
+        <v>13.7</v>
+      </c>
+      <c r="H65">
+        <v>45.5</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>13.3</v>
+      </c>
+      <c r="K65">
+        <v>7.02</v>
+      </c>
+      <c r="L65">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M65">
+        <v>1.3212864</v>
+      </c>
+      <c r="N65">
+        <v>4.958713600000001</v>
+      </c>
+      <c r="O65">
+        <v>0.8925684480000001</v>
+      </c>
+      <c r="P65">
+        <v>4.066145152000001</v>
+      </c>
+      <c r="Q65">
+        <v>11.086145152</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1584587074448346</v>
+      </c>
+      <c r="T65">
+        <v>2.088991408302785</v>
+      </c>
+      <c r="U65">
+        <v>0.0226</v>
+      </c>
+      <c r="V65">
+        <v>0.18</v>
+      </c>
+      <c r="W65">
+        <v>0.018532</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>4.752943797801901</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.07028515607541187</v>
+      </c>
+      <c r="C66">
+        <v>41.4117578540892</v>
+      </c>
+      <c r="D66">
+        <v>87.1037578540892</v>
+      </c>
+      <c r="E66">
+        <v>12.092</v>
+      </c>
+      <c r="F66">
+        <v>59.392</v>
+      </c>
+      <c r="G66">
+        <v>13.7</v>
+      </c>
+      <c r="H66">
+        <v>45.5</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>13.3</v>
+      </c>
+      <c r="K66">
+        <v>7.02</v>
+      </c>
+      <c r="L66">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M66">
+        <v>1.3422592</v>
+      </c>
+      <c r="N66">
+        <v>4.937740800000001</v>
+      </c>
+      <c r="O66">
+        <v>0.8887933440000002</v>
+      </c>
+      <c r="P66">
+        <v>4.048947456</v>
+      </c>
+      <c r="Q66">
+        <v>11.068947456</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1622907668761441</v>
+      </c>
+      <c r="T66">
+        <v>2.142660009789373</v>
+      </c>
+      <c r="U66">
+        <v>0.0226</v>
+      </c>
+      <c r="V66">
+        <v>0.18</v>
+      </c>
+      <c r="W66">
+        <v>0.018532</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>4.678679050961247</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.07026543039623495</v>
+      </c>
+      <c r="C67">
+        <v>40.50531716463518</v>
+      </c>
+      <c r="D67">
+        <v>87.12531716463518</v>
+      </c>
+      <c r="E67">
+        <v>13.02</v>
+      </c>
+      <c r="F67">
+        <v>60.32</v>
+      </c>
+      <c r="G67">
+        <v>13.7</v>
+      </c>
+      <c r="H67">
+        <v>45.5</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>13.3</v>
+      </c>
+      <c r="K67">
+        <v>7.02</v>
+      </c>
+      <c r="L67">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M67">
+        <v>1.363232</v>
+      </c>
+      <c r="N67">
+        <v>4.916768000000001</v>
+      </c>
+      <c r="O67">
+        <v>0.8850182400000002</v>
+      </c>
+      <c r="P67">
+        <v>4.031749760000001</v>
+      </c>
+      <c r="Q67">
+        <v>11.05174976</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1663418011320999</v>
+      </c>
+      <c r="T67">
+        <v>2.199395388503764</v>
+      </c>
+      <c r="U67">
+        <v>0.0226</v>
+      </c>
+      <c r="V67">
+        <v>0.18</v>
+      </c>
+      <c r="W67">
+        <v>0.018532</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>4.60669937325415</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.07024570471705802</v>
+      </c>
+      <c r="C68">
+        <v>39.59888715024173</v>
+      </c>
+      <c r="D68">
+        <v>87.14688715024172</v>
+      </c>
+      <c r="E68">
+        <v>13.948</v>
+      </c>
+      <c r="F68">
+        <v>61.248</v>
+      </c>
+      <c r="G68">
+        <v>13.7</v>
+      </c>
+      <c r="H68">
+        <v>45.5</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>13.3</v>
+      </c>
+      <c r="K68">
+        <v>7.02</v>
+      </c>
+      <c r="L68">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M68">
+        <v>1.3842048</v>
+      </c>
+      <c r="N68">
+        <v>4.895795200000001</v>
+      </c>
+      <c r="O68">
+        <v>0.8812431360000001</v>
+      </c>
+      <c r="P68">
+        <v>4.014552064000001</v>
+      </c>
+      <c r="Q68">
+        <v>11.034552064</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1706311315207589</v>
+      </c>
+      <c r="T68">
+        <v>2.259468142436649</v>
+      </c>
+      <c r="U68">
+        <v>0.0226</v>
+      </c>
+      <c r="V68">
+        <v>0.18</v>
+      </c>
+      <c r="W68">
+        <v>0.018532</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>4.536900897901814</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1192092333489763</v>
+      </c>
+      <c r="C69">
+        <v>5.500480797261446</v>
+      </c>
+      <c r="D69">
+        <v>53.97648079726144</v>
+      </c>
+      <c r="E69">
+        <v>14.876</v>
+      </c>
+      <c r="F69">
+        <v>62.176</v>
+      </c>
+      <c r="G69">
+        <v>13.7</v>
+      </c>
+      <c r="H69">
+        <v>45.5</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>13.3</v>
+      </c>
+      <c r="K69">
+        <v>7.02</v>
+      </c>
+      <c r="L69">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M69">
+        <v>6.777184</v>
+      </c>
+      <c r="N69">
+        <v>-0.497183999999999</v>
+      </c>
+      <c r="O69">
+        <v>-0.08949311999999982</v>
+      </c>
+      <c r="P69">
+        <v>-0.4076908799999991</v>
+      </c>
+      <c r="Q69">
+        <v>6.612309120000001</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1768492964598027</v>
+      </c>
+      <c r="T69">
+        <v>2.346554530858702</v>
+      </c>
+      <c r="U69">
+        <v>0.109</v>
+      </c>
+      <c r="V69">
+        <v>0.1667949401993513</v>
+      </c>
+      <c r="W69">
+        <v>0.09081935151827071</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.9266385566630626</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1202062333489763</v>
+      </c>
+      <c r="C70">
+        <v>4.157361454076522</v>
+      </c>
+      <c r="D70">
+        <v>53.56136145407653</v>
+      </c>
+      <c r="E70">
+        <v>15.804</v>
+      </c>
+      <c r="F70">
+        <v>63.104</v>
+      </c>
+      <c r="G70">
+        <v>13.7</v>
+      </c>
+      <c r="H70">
+        <v>45.5</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>13.3</v>
+      </c>
+      <c r="K70">
+        <v>7.02</v>
+      </c>
+      <c r="L70">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M70">
+        <v>6.878336</v>
+      </c>
+      <c r="N70">
+        <v>-0.5983359999999989</v>
+      </c>
+      <c r="O70">
+        <v>-0.1077004799999998</v>
+      </c>
+      <c r="P70">
+        <v>-0.4906355199999991</v>
+      </c>
+      <c r="Q70">
+        <v>6.529364480000001</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1820852119741716</v>
+      </c>
+      <c r="T70">
+        <v>2.419884359948037</v>
+      </c>
+      <c r="U70">
+        <v>0.109</v>
+      </c>
+      <c r="V70">
+        <v>0.1643420734317138</v>
+      </c>
+      <c r="W70">
+        <v>0.09108671399594319</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.9130115190650764</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1212032333489763</v>
+      </c>
+      <c r="C71">
+        <v>2.820578533009765</v>
+      </c>
+      <c r="D71">
+        <v>53.15257853300977</v>
+      </c>
+      <c r="E71">
+        <v>16.732</v>
+      </c>
+      <c r="F71">
+        <v>64.032</v>
+      </c>
+      <c r="G71">
+        <v>13.7</v>
+      </c>
+      <c r="H71">
+        <v>45.5</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>13.3</v>
+      </c>
+      <c r="K71">
+        <v>7.02</v>
+      </c>
+      <c r="L71">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M71">
+        <v>6.979488</v>
+      </c>
+      <c r="N71">
+        <v>-0.6994879999999988</v>
+      </c>
+      <c r="O71">
+        <v>-0.1259078399999998</v>
+      </c>
+      <c r="P71">
+        <v>-0.573580159999999</v>
+      </c>
+      <c r="Q71">
+        <v>6.446419840000001</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1876589284894674</v>
+      </c>
+      <c r="T71">
+        <v>2.497945145752812</v>
+      </c>
+      <c r="U71">
+        <v>0.109</v>
+      </c>
+      <c r="V71">
+        <v>0.161960304251544</v>
+      </c>
+      <c r="W71">
+        <v>0.09134632683658171</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.8997794680641332</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1222002333489763</v>
+      </c>
+      <c r="C72">
+        <v>1.489988053282218</v>
+      </c>
+      <c r="D72">
+        <v>52.74998805328223</v>
+      </c>
+      <c r="E72">
+        <v>17.66000000000001</v>
+      </c>
+      <c r="F72">
+        <v>64.96000000000001</v>
+      </c>
+      <c r="G72">
+        <v>13.7</v>
+      </c>
+      <c r="H72">
+        <v>45.5</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>13.3</v>
+      </c>
+      <c r="K72">
+        <v>7.02</v>
+      </c>
+      <c r="L72">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M72">
+        <v>7.080640000000001</v>
+      </c>
+      <c r="N72">
+        <v>-0.8006399999999996</v>
+      </c>
+      <c r="O72">
+        <v>-0.1441151999999999</v>
+      </c>
+      <c r="P72">
+        <v>-0.6565247999999997</v>
+      </c>
+      <c r="Q72">
+        <v>6.3634752</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.193604226105783</v>
+      </c>
+      <c r="T72">
+        <v>2.581209983944572</v>
+      </c>
+      <c r="U72">
+        <v>0.109</v>
+      </c>
+      <c r="V72">
+        <v>0.1596465856193791</v>
+      </c>
+      <c r="W72">
+        <v>0.09159852216748768</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.886925475663217</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1231972333489763</v>
+      </c>
+      <c r="C73">
+        <v>0.1654503635040214</v>
+      </c>
+      <c r="D73">
+        <v>52.35345036350401</v>
+      </c>
+      <c r="E73">
+        <v>18.58799999999999</v>
+      </c>
+      <c r="F73">
+        <v>65.88799999999999</v>
+      </c>
+      <c r="G73">
+        <v>13.7</v>
+      </c>
+      <c r="H73">
+        <v>45.5</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>13.3</v>
+      </c>
+      <c r="K73">
+        <v>7.02</v>
+      </c>
+      <c r="L73">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M73">
+        <v>7.181791999999999</v>
+      </c>
+      <c r="N73">
+        <v>-0.9017919999999977</v>
+      </c>
+      <c r="O73">
+        <v>-0.1623225599999996</v>
+      </c>
+      <c r="P73">
+        <v>-0.7394694399999981</v>
+      </c>
+      <c r="Q73">
+        <v>6.280530560000002</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1999595442473617</v>
+      </c>
+      <c r="T73">
+        <v>2.670217224770247</v>
+      </c>
+      <c r="U73">
+        <v>0.109</v>
+      </c>
+      <c r="V73">
+        <v>0.1573980421599512</v>
+      </c>
+      <c r="W73">
+        <v>0.09184361340456532</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.8744335675552846</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1241942333489763</v>
+      </c>
+      <c r="C74">
+        <v>-1.153170019838242</v>
+      </c>
+      <c r="D74">
+        <v>51.96282998016176</v>
+      </c>
+      <c r="E74">
+        <v>19.51600000000001</v>
+      </c>
+      <c r="F74">
+        <v>66.816</v>
+      </c>
+      <c r="G74">
+        <v>13.7</v>
+      </c>
+      <c r="H74">
+        <v>45.5</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>13.3</v>
+      </c>
+      <c r="K74">
+        <v>7.02</v>
+      </c>
+      <c r="L74">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M74">
+        <v>7.282944000000001</v>
+      </c>
+      <c r="N74">
+        <v>-1.002943999999999</v>
+      </c>
+      <c r="O74">
+        <v>-0.1805299199999999</v>
+      </c>
+      <c r="P74">
+        <v>-0.8224140799999995</v>
+      </c>
+      <c r="Q74">
+        <v>6.19758592</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2067688136847675</v>
+      </c>
+      <c r="T74">
+        <v>2.765582125654899</v>
+      </c>
+      <c r="U74">
+        <v>0.109</v>
+      </c>
+      <c r="V74">
+        <v>0.155211958241063</v>
+      </c>
+      <c r="W74">
+        <v>0.09208189655172414</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.8622886568947943</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1251912333489763</v>
+      </c>
+      <c r="C75">
+        <v>-2.466004566716904</v>
+      </c>
+      <c r="D75">
+        <v>51.5779954332831</v>
+      </c>
+      <c r="E75">
+        <v>20.444</v>
+      </c>
+      <c r="F75">
+        <v>67.744</v>
+      </c>
+      <c r="G75">
+        <v>13.7</v>
+      </c>
+      <c r="H75">
+        <v>45.5</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>13.3</v>
+      </c>
+      <c r="K75">
+        <v>7.02</v>
+      </c>
+      <c r="L75">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M75">
+        <v>7.384096</v>
+      </c>
+      <c r="N75">
+        <v>-1.104095999999998</v>
+      </c>
+      <c r="O75">
+        <v>-0.1987372799999997</v>
+      </c>
+      <c r="P75">
+        <v>-0.9053587199999987</v>
+      </c>
+      <c r="Q75">
+        <v>6.114641280000001</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2140824734508699</v>
+      </c>
+      <c r="T75">
+        <v>2.868011093271746</v>
+      </c>
+      <c r="U75">
+        <v>0.109</v>
+      </c>
+      <c r="V75">
+        <v>0.1530857670322813</v>
+      </c>
+      <c r="W75">
+        <v>0.09231365139348134</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.8504764835126739</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1261882333489763</v>
+      </c>
+      <c r="C76">
+        <v>-3.77318088109142</v>
+      </c>
+      <c r="D76">
+        <v>51.19881911890858</v>
+      </c>
+      <c r="E76">
+        <v>21.372</v>
+      </c>
+      <c r="F76">
+        <v>68.672</v>
+      </c>
+      <c r="G76">
+        <v>13.7</v>
+      </c>
+      <c r="H76">
+        <v>45.5</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>13.3</v>
+      </c>
+      <c r="K76">
+        <v>7.02</v>
+      </c>
+      <c r="L76">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M76">
+        <v>7.485247999999999</v>
+      </c>
+      <c r="N76">
+        <v>-1.205247999999998</v>
+      </c>
+      <c r="O76">
+        <v>-0.2169446399999997</v>
+      </c>
+      <c r="P76">
+        <v>-0.9883033599999986</v>
+      </c>
+      <c r="Q76">
+        <v>6.031696640000001</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2219587224297496</v>
+      </c>
+      <c r="T76">
+        <v>2.978319212243737</v>
+      </c>
+      <c r="U76">
+        <v>0.109</v>
+      </c>
+      <c r="V76">
+        <v>0.151017040450764</v>
+      </c>
+      <c r="W76">
+        <v>0.09253914259086672</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.8389835580598</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1271852333489762</v>
+      </c>
+      <c r="C77">
+        <v>-5.074822841976442</v>
+      </c>
+      <c r="D77">
+        <v>50.82517715802356</v>
+      </c>
+      <c r="E77">
+        <v>22.3</v>
+      </c>
+      <c r="F77">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G77">
+        <v>13.7</v>
+      </c>
+      <c r="H77">
+        <v>45.5</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>13.3</v>
+      </c>
+      <c r="K77">
+        <v>7.02</v>
+      </c>
+      <c r="L77">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M77">
+        <v>7.586399999999999</v>
+      </c>
+      <c r="N77">
+        <v>-1.306399999999998</v>
+      </c>
+      <c r="O77">
+        <v>-0.2351519999999997</v>
+      </c>
+      <c r="P77">
+        <v>-1.071247999999999</v>
+      </c>
+      <c r="Q77">
+        <v>5.948752000000001</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2304650713269396</v>
+      </c>
+      <c r="T77">
+        <v>3.097451980733486</v>
+      </c>
+      <c r="U77">
+        <v>0.109</v>
+      </c>
+      <c r="V77">
+        <v>0.1490034799114205</v>
+      </c>
+      <c r="W77">
+        <v>0.09275862068965517</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.8277971106190026</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1281822333489763</v>
+      </c>
+      <c r="C78">
+        <v>-6.371050738377804</v>
+      </c>
+      <c r="D78">
+        <v>50.45694926162219</v>
+      </c>
+      <c r="E78">
+        <v>23.22799999999999</v>
+      </c>
+      <c r="F78">
+        <v>70.52799999999999</v>
+      </c>
+      <c r="G78">
+        <v>13.7</v>
+      </c>
+      <c r="H78">
+        <v>45.5</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>13.3</v>
+      </c>
+      <c r="K78">
+        <v>7.02</v>
+      </c>
+      <c r="L78">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M78">
+        <v>7.687551999999999</v>
+      </c>
+      <c r="N78">
+        <v>-1.407551999999998</v>
+      </c>
+      <c r="O78">
+        <v>-0.2533593599999996</v>
+      </c>
+      <c r="P78">
+        <v>-1.154192639999998</v>
+      </c>
+      <c r="Q78">
+        <v>5.865807360000002</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2396802826322287</v>
+      </c>
+      <c r="T78">
+        <v>3.226512479930715</v>
+      </c>
+      <c r="U78">
+        <v>0.109</v>
+      </c>
+      <c r="V78">
+        <v>0.1470429078073228</v>
+      </c>
+      <c r="W78">
+        <v>0.09297232304900181</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.8169050433740158</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1291792333489763</v>
+      </c>
+      <c r="C79">
+        <v>-7.661981398404919</v>
+      </c>
+      <c r="D79">
+        <v>50.09401860159509</v>
+      </c>
+      <c r="E79">
+        <v>24.15600000000001</v>
+      </c>
+      <c r="F79">
+        <v>71.456</v>
+      </c>
+      <c r="G79">
+        <v>13.7</v>
+      </c>
+      <c r="H79">
+        <v>45.5</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>13.3</v>
+      </c>
+      <c r="K79">
+        <v>7.02</v>
+      </c>
+      <c r="L79">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M79">
+        <v>7.788704</v>
+      </c>
+      <c r="N79">
+        <v>-1.508703999999999</v>
+      </c>
+      <c r="O79">
+        <v>-0.2715667199999998</v>
+      </c>
+      <c r="P79">
+        <v>-1.237137279999999</v>
+      </c>
+      <c r="Q79">
+        <v>5.782862720000001</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2496968166597169</v>
+      </c>
+      <c r="T79">
+        <v>3.366795631232051</v>
+      </c>
+      <c r="U79">
+        <v>0.109</v>
+      </c>
+      <c r="V79">
+        <v>0.145133259653981</v>
+      </c>
+      <c r="W79">
+        <v>0.09318047469771608</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.806295886966561</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1560602900492844</v>
+      </c>
+      <c r="C80">
+        <v>-16.72688964214224</v>
+      </c>
+      <c r="D80">
+        <v>41.95711035785776</v>
+      </c>
+      <c r="E80">
+        <v>25.084</v>
+      </c>
+      <c r="F80">
+        <v>72.384</v>
+      </c>
+      <c r="G80">
+        <v>13.7</v>
+      </c>
+      <c r="H80">
+        <v>45.5</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>13.3</v>
+      </c>
+      <c r="K80">
+        <v>7.02</v>
+      </c>
+      <c r="L80">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M80">
+        <v>10.1482368</v>
+      </c>
+      <c r="N80">
+        <v>-3.868236799999998</v>
+      </c>
+      <c r="O80">
+        <v>-0.6962826239999996</v>
+      </c>
+      <c r="P80">
+        <v>-3.171954175999999</v>
+      </c>
+      <c r="Q80">
+        <v>3.848045824000001</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.267660566054741</v>
+      </c>
+      <c r="T80">
+        <v>3.618380797059454</v>
+      </c>
+      <c r="U80">
+        <v>0.1402</v>
+      </c>
+      <c r="V80">
+        <v>0.1113888079552894</v>
+      </c>
+      <c r="W80">
+        <v>0.1245832891246684</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.6188267108627187</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1573692900492844</v>
+      </c>
+      <c r="C81">
+        <v>-17.98415856820225</v>
+      </c>
+      <c r="D81">
+        <v>41.62784143179775</v>
+      </c>
+      <c r="E81">
+        <v>26.012</v>
+      </c>
+      <c r="F81">
+        <v>73.312</v>
+      </c>
+      <c r="G81">
+        <v>13.7</v>
+      </c>
+      <c r="H81">
+        <v>45.5</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>13.3</v>
+      </c>
+      <c r="K81">
+        <v>7.02</v>
+      </c>
+      <c r="L81">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M81">
+        <v>10.2783424</v>
+      </c>
+      <c r="N81">
+        <v>-3.998342399999999</v>
+      </c>
+      <c r="O81">
+        <v>-0.7197016319999997</v>
+      </c>
+      <c r="P81">
+        <v>-3.278640767999999</v>
+      </c>
+      <c r="Q81">
+        <v>3.741359232000001</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2799634501525858</v>
+      </c>
+      <c r="T81">
+        <v>3.790684644538475</v>
+      </c>
+      <c r="U81">
+        <v>0.1402</v>
+      </c>
+      <c r="V81">
+        <v>0.1099788230444629</v>
+      </c>
+      <c r="W81">
+        <v>0.1247809690091663</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.6109934613581274</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1586782900492844</v>
+      </c>
+      <c r="C82">
+        <v>-19.23629969531119</v>
+      </c>
+      <c r="D82">
+        <v>41.3037003046888</v>
+      </c>
+      <c r="E82">
+        <v>26.94</v>
+      </c>
+      <c r="F82">
+        <v>74.23999999999999</v>
+      </c>
+      <c r="G82">
+        <v>13.7</v>
+      </c>
+      <c r="H82">
+        <v>45.5</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>13.3</v>
+      </c>
+      <c r="K82">
+        <v>7.02</v>
+      </c>
+      <c r="L82">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M82">
+        <v>10.408448</v>
+      </c>
+      <c r="N82">
+        <v>-4.128447999999997</v>
+      </c>
+      <c r="O82">
+        <v>-0.7431206399999994</v>
+      </c>
+      <c r="P82">
+        <v>-3.385327359999998</v>
+      </c>
+      <c r="Q82">
+        <v>3.634672640000002</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2934966226602151</v>
+      </c>
+      <c r="T82">
+        <v>3.980218876765399</v>
+      </c>
+      <c r="U82">
+        <v>0.1402</v>
+      </c>
+      <c r="V82">
+        <v>0.1086040877564071</v>
+      </c>
+      <c r="W82">
+        <v>0.1249737068965517</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.6033560430911508</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1599872900492844</v>
+      </c>
+      <c r="C83">
+        <v>-20.48343188296722</v>
+      </c>
+      <c r="D83">
+        <v>40.98456811703278</v>
+      </c>
+      <c r="E83">
+        <v>27.86800000000001</v>
+      </c>
+      <c r="F83">
+        <v>75.16800000000001</v>
+      </c>
+      <c r="G83">
+        <v>13.7</v>
+      </c>
+      <c r="H83">
+        <v>45.5</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>13.3</v>
+      </c>
+      <c r="K83">
+        <v>7.02</v>
+      </c>
+      <c r="L83">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M83">
+        <v>10.5385536</v>
+      </c>
+      <c r="N83">
+        <v>-4.258553599999999</v>
+      </c>
+      <c r="O83">
+        <v>-0.7665396479999999</v>
+      </c>
+      <c r="P83">
+        <v>-3.492013951999999</v>
+      </c>
+      <c r="Q83">
+        <v>3.527986048</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.3084543396423318</v>
+      </c>
+      <c r="T83">
+        <v>4.189704080805684</v>
+      </c>
+      <c r="U83">
+        <v>0.1402</v>
+      </c>
+      <c r="V83">
+        <v>0.1072632965495379</v>
+      </c>
+      <c r="W83">
+        <v>0.1251616858237548</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.5959072030529884</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1612962900492844</v>
+      </c>
+      <c r="C84">
+        <v>-21.72567034537198</v>
+      </c>
+      <c r="D84">
+        <v>40.67032965462802</v>
+      </c>
+      <c r="E84">
+        <v>28.79600000000001</v>
+      </c>
+      <c r="F84">
+        <v>76.096</v>
+      </c>
+      <c r="G84">
+        <v>13.7</v>
+      </c>
+      <c r="H84">
+        <v>45.5</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>13.3</v>
+      </c>
+      <c r="K84">
+        <v>7.02</v>
+      </c>
+      <c r="L84">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M84">
+        <v>10.6686592</v>
+      </c>
+      <c r="N84">
+        <v>-4.388659199999999</v>
+      </c>
+      <c r="O84">
+        <v>-0.7899586559999998</v>
+      </c>
+      <c r="P84">
+        <v>-3.598700544</v>
+      </c>
+      <c r="Q84">
+        <v>3.421299456</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3250740251780169</v>
+      </c>
+      <c r="T84">
+        <v>4.422465418628222</v>
+      </c>
+      <c r="U84">
+        <v>0.1402</v>
+      </c>
+      <c r="V84">
+        <v>0.1059552075672265</v>
+      </c>
+      <c r="W84">
+        <v>0.1253450798990748</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.588640042040147</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1626052900492844</v>
+      </c>
+      <c r="C85">
+        <v>-22.96312679011412</v>
+      </c>
+      <c r="D85">
+        <v>40.36087320988589</v>
+      </c>
+      <c r="E85">
+        <v>29.724</v>
+      </c>
+      <c r="F85">
+        <v>77.024</v>
+      </c>
+      <c r="G85">
+        <v>13.7</v>
+      </c>
+      <c r="H85">
+        <v>45.5</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>13.3</v>
+      </c>
+      <c r="K85">
+        <v>7.02</v>
+      </c>
+      <c r="L85">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M85">
+        <v>10.7987648</v>
+      </c>
+      <c r="N85">
+        <v>-4.518764799999998</v>
+      </c>
+      <c r="O85">
+        <v>-0.8133776639999996</v>
+      </c>
+      <c r="P85">
+        <v>-3.705387135999998</v>
+      </c>
+      <c r="Q85">
+        <v>3.314612864000001</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3436489678355473</v>
+      </c>
+      <c r="T85">
+        <v>4.682610443253411</v>
+      </c>
+      <c r="U85">
+        <v>0.1402</v>
+      </c>
+      <c r="V85">
+        <v>0.1046786388013563</v>
+      </c>
+      <c r="W85">
+        <v>0.1255240548400498</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.5815479933408683</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1639142900492844</v>
+      </c>
+      <c r="C86">
+        <v>-24.19590955056907</v>
+      </c>
+      <c r="D86">
+        <v>40.05609044943093</v>
+      </c>
+      <c r="E86">
+        <v>30.652</v>
+      </c>
+      <c r="F86">
+        <v>77.952</v>
+      </c>
+      <c r="G86">
+        <v>13.7</v>
+      </c>
+      <c r="H86">
+        <v>45.5</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>13.3</v>
+      </c>
+      <c r="K86">
+        <v>7.02</v>
+      </c>
+      <c r="L86">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M86">
+        <v>10.9288704</v>
+      </c>
+      <c r="N86">
+        <v>-4.648870399999998</v>
+      </c>
+      <c r="O86">
+        <v>-0.8367966719999996</v>
+      </c>
+      <c r="P86">
+        <v>-3.812073727999998</v>
+      </c>
+      <c r="Q86">
+        <v>3.207926272000001</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3645457783252689</v>
+      </c>
+      <c r="T86">
+        <v>4.975273595956748</v>
+      </c>
+      <c r="U86">
+        <v>0.1402</v>
+      </c>
+      <c r="V86">
+        <v>0.1034324645299115</v>
+      </c>
+      <c r="W86">
+        <v>0.1256987684729064</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.5746248029439531</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1652232900492844</v>
+      </c>
+      <c r="C87">
+        <v>-25.42412371234514</v>
+      </c>
+      <c r="D87">
+        <v>39.75587628765486</v>
+      </c>
+      <c r="E87">
+        <v>31.58</v>
+      </c>
+      <c r="F87">
+        <v>78.88</v>
+      </c>
+      <c r="G87">
+        <v>13.7</v>
+      </c>
+      <c r="H87">
+        <v>45.5</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>13.3</v>
+      </c>
+      <c r="K87">
+        <v>7.02</v>
+      </c>
+      <c r="L87">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M87">
+        <v>11.058976</v>
+      </c>
+      <c r="N87">
+        <v>-4.778975999999998</v>
+      </c>
+      <c r="O87">
+        <v>-0.8602156799999997</v>
+      </c>
+      <c r="P87">
+        <v>-3.918760319999999</v>
+      </c>
+      <c r="Q87">
+        <v>3.101239680000001</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3882288302136201</v>
+      </c>
+      <c r="T87">
+        <v>5.306958502353864</v>
+      </c>
+      <c r="U87">
+        <v>0.1402</v>
+      </c>
+      <c r="V87">
+        <v>0.1022156120060302</v>
+      </c>
+      <c r="W87">
+        <v>0.1258693711967546</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.5678645111446124</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1665322900492844</v>
+      </c>
+      <c r="C88">
+        <v>-26.6478712340857</v>
+      </c>
+      <c r="D88">
+        <v>39.46012876591429</v>
+      </c>
+      <c r="E88">
+        <v>32.508</v>
+      </c>
+      <c r="F88">
+        <v>79.80799999999999</v>
+      </c>
+      <c r="G88">
+        <v>13.7</v>
+      </c>
+      <c r="H88">
+        <v>45.5</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>13.3</v>
+      </c>
+      <c r="K88">
+        <v>7.02</v>
+      </c>
+      <c r="L88">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M88">
+        <v>11.1890816</v>
+      </c>
+      <c r="N88">
+        <v>-4.909081599999997</v>
+      </c>
+      <c r="O88">
+        <v>-0.8836346879999994</v>
+      </c>
+      <c r="P88">
+        <v>-4.025446911999998</v>
+      </c>
+      <c r="Q88">
+        <v>2.994553088000002</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.4152951752288787</v>
+      </c>
+      <c r="T88">
+        <v>5.686026966807711</v>
+      </c>
+      <c r="U88">
+        <v>0.1402</v>
+      </c>
+      <c r="V88">
+        <v>0.1010270583780531</v>
+      </c>
+      <c r="W88">
+        <v>0.1260360064153969</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.5612614354336287</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1678412900492844</v>
+      </c>
+      <c r="C89">
+        <v>-27.86725106291915</v>
+      </c>
+      <c r="D89">
+        <v>39.16874893708085</v>
+      </c>
+      <c r="E89">
+        <v>33.43600000000001</v>
+      </c>
+      <c r="F89">
+        <v>80.736</v>
+      </c>
+      <c r="G89">
+        <v>13.7</v>
+      </c>
+      <c r="H89">
+        <v>45.5</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>13.3</v>
+      </c>
+      <c r="K89">
+        <v>7.02</v>
+      </c>
+      <c r="L89">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M89">
+        <v>11.3191872</v>
+      </c>
+      <c r="N89">
+        <v>-5.039187199999999</v>
+      </c>
+      <c r="O89">
+        <v>-0.9070536959999997</v>
+      </c>
+      <c r="P89">
+        <v>-4.132133503999999</v>
+      </c>
+      <c r="Q89">
+        <v>2.887866496000001</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4465255733234079</v>
+      </c>
+      <c r="T89">
+        <v>6.123413656562152</v>
+      </c>
+      <c r="U89">
+        <v>0.1402</v>
+      </c>
+      <c r="V89">
+        <v>0.09986582782198355</v>
+      </c>
+      <c r="W89">
+        <v>0.1261988109393579</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.5548101545665753</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1691502900492844</v>
+      </c>
+      <c r="C90">
+        <v>-29.08235924483138</v>
+      </c>
+      <c r="D90">
+        <v>38.88164075516862</v>
+      </c>
+      <c r="E90">
+        <v>34.364</v>
+      </c>
+      <c r="F90">
+        <v>81.664</v>
+      </c>
+      <c r="G90">
+        <v>13.7</v>
+      </c>
+      <c r="H90">
+        <v>45.5</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>13.3</v>
+      </c>
+      <c r="K90">
+        <v>7.02</v>
+      </c>
+      <c r="L90">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M90">
+        <v>11.4492928</v>
+      </c>
+      <c r="N90">
+        <v>-5.169292799999999</v>
+      </c>
+      <c r="O90">
+        <v>-0.9304727039999998</v>
+      </c>
+      <c r="P90">
+        <v>-4.238820096</v>
+      </c>
+      <c r="Q90">
+        <v>2.781179904</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4829610377670253</v>
+      </c>
+      <c r="T90">
+        <v>6.633698127942331</v>
+      </c>
+      <c r="U90">
+        <v>0.1402</v>
+      </c>
+      <c r="V90">
+        <v>0.09873098886946101</v>
+      </c>
+      <c r="W90">
+        <v>0.1263579153605016</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.5485054937192279</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.1704592900492844</v>
+      </c>
+      <c r="C91">
+        <v>-30.2932890302195</v>
+      </c>
+      <c r="D91">
+        <v>38.5987109697805</v>
+      </c>
+      <c r="E91">
+        <v>35.292</v>
+      </c>
+      <c r="F91">
+        <v>82.592</v>
+      </c>
+      <c r="G91">
+        <v>13.7</v>
+      </c>
+      <c r="H91">
+        <v>45.5</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>13.3</v>
+      </c>
+      <c r="K91">
+        <v>7.02</v>
+      </c>
+      <c r="L91">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M91">
+        <v>11.5793984</v>
+      </c>
+      <c r="N91">
+        <v>-5.299398399999998</v>
+      </c>
+      <c r="O91">
+        <v>-0.9538917119999996</v>
+      </c>
+      <c r="P91">
+        <v>-4.345506687999998</v>
+      </c>
+      <c r="Q91">
+        <v>2.674493312000002</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.5260211321094821</v>
+      </c>
+      <c r="T91">
+        <v>7.236761594118907</v>
+      </c>
+      <c r="U91">
+        <v>0.1402</v>
+      </c>
+      <c r="V91">
+        <v>0.09762165191587156</v>
+      </c>
+      <c r="W91">
+        <v>0.1265134444013948</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.542342510643731</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.1717682900492844</v>
+      </c>
+      <c r="C92">
+        <v>-31.50013097487019</v>
+      </c>
+      <c r="D92">
+        <v>38.3198690251298</v>
+      </c>
+      <c r="E92">
+        <v>36.22</v>
+      </c>
+      <c r="F92">
+        <v>83.52</v>
+      </c>
+      <c r="G92">
+        <v>13.7</v>
+      </c>
+      <c r="H92">
+        <v>45.5</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>13.3</v>
+      </c>
+      <c r="K92">
+        <v>7.02</v>
+      </c>
+      <c r="L92">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M92">
+        <v>11.709504</v>
+      </c>
+      <c r="N92">
+        <v>-5.429503999999998</v>
+      </c>
+      <c r="O92">
+        <v>-0.9773107199999996</v>
+      </c>
+      <c r="P92">
+        <v>-4.452193279999999</v>
+      </c>
+      <c r="Q92">
+        <v>2.567806720000001</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.5776932453204303</v>
+      </c>
+      <c r="T92">
+        <v>7.960437753530798</v>
+      </c>
+      <c r="U92">
+        <v>0.1402</v>
+      </c>
+      <c r="V92">
+        <v>0.0965369668945841</v>
+      </c>
+      <c r="W92">
+        <v>0.1266655172413793</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.5363164827476896</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.1730772900492844</v>
+      </c>
+      <c r="C93">
+        <v>-32.70297303659267</v>
+      </c>
+      <c r="D93">
+        <v>38.04502696340732</v>
+      </c>
+      <c r="E93">
+        <v>37.148</v>
+      </c>
+      <c r="F93">
+        <v>84.44799999999999</v>
+      </c>
+      <c r="G93">
+        <v>13.7</v>
+      </c>
+      <c r="H93">
+        <v>45.5</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>13.3</v>
+      </c>
+      <c r="K93">
+        <v>7.02</v>
+      </c>
+      <c r="L93">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M93">
+        <v>11.8396096</v>
+      </c>
+      <c r="N93">
+        <v>-5.559609599999996</v>
+      </c>
+      <c r="O93">
+        <v>-1.000729727999999</v>
+      </c>
+      <c r="P93">
+        <v>-4.558879871999997</v>
+      </c>
+      <c r="Q93">
+        <v>2.461120128000003</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.6408480503560338</v>
+      </c>
+      <c r="T93">
+        <v>8.844930837256443</v>
+      </c>
+      <c r="U93">
+        <v>0.1402</v>
+      </c>
+      <c r="V93">
+        <v>0.09547612110453377</v>
+      </c>
+      <c r="W93">
+        <v>0.1268142478211444</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.5304228950251875</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.1743862900492844</v>
+      </c>
+      <c r="C94">
+        <v>-33.90190066772274</v>
+      </c>
+      <c r="D94">
+        <v>37.77409933227727</v>
+      </c>
+      <c r="E94">
+        <v>38.07600000000001</v>
+      </c>
+      <c r="F94">
+        <v>85.376</v>
+      </c>
+      <c r="G94">
+        <v>13.7</v>
+      </c>
+      <c r="H94">
+        <v>45.5</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>13.3</v>
+      </c>
+      <c r="K94">
+        <v>7.02</v>
+      </c>
+      <c r="L94">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M94">
+        <v>11.9697152</v>
+      </c>
+      <c r="N94">
+        <v>-5.689715199999998</v>
+      </c>
+      <c r="O94">
+        <v>-1.024148736</v>
+      </c>
+      <c r="P94">
+        <v>-4.665566463999999</v>
+      </c>
+      <c r="Q94">
+        <v>2.354433536000001</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.7197915566505383</v>
+      </c>
+      <c r="T94">
+        <v>9.950547191913502</v>
+      </c>
+      <c r="U94">
+        <v>0.1402</v>
+      </c>
+      <c r="V94">
+        <v>0.09443833717948445</v>
+      </c>
+      <c r="W94">
+        <v>0.1269597451274363</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.5246574287749137</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.1756952900492844</v>
+      </c>
+      <c r="C95">
+        <v>-35.09699690370233</v>
+      </c>
+      <c r="D95">
+        <v>37.50700309629767</v>
+      </c>
+      <c r="E95">
+        <v>39.004</v>
+      </c>
+      <c r="F95">
+        <v>86.304</v>
+      </c>
+      <c r="G95">
+        <v>13.7</v>
+      </c>
+      <c r="H95">
+        <v>45.5</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>13.3</v>
+      </c>
+      <c r="K95">
+        <v>7.02</v>
+      </c>
+      <c r="L95">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M95">
+        <v>12.0998208</v>
+      </c>
+      <c r="N95">
+        <v>-5.819820799999999</v>
+      </c>
+      <c r="O95">
+        <v>-1.047567744</v>
+      </c>
+      <c r="P95">
+        <v>-4.772253055999998</v>
+      </c>
+      <c r="Q95">
+        <v>2.247746944000001</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.821290350457758</v>
+      </c>
+      <c r="T95">
+        <v>11.37205393361543</v>
+      </c>
+      <c r="U95">
+        <v>0.1402</v>
+      </c>
+      <c r="V95">
+        <v>0.09342287118830721</v>
+      </c>
+      <c r="W95">
+        <v>0.1271021134593993</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.5190159510461512</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.1770042900492844</v>
+      </c>
+      <c r="C96">
+        <v>-36.28834244792742</v>
+      </c>
+      <c r="D96">
+        <v>37.24365755207258</v>
+      </c>
+      <c r="E96">
+        <v>39.932</v>
+      </c>
+      <c r="F96">
+        <v>87.232</v>
+      </c>
+      <c r="G96">
+        <v>13.7</v>
+      </c>
+      <c r="H96">
+        <v>45.5</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>13.3</v>
+      </c>
+      <c r="K96">
+        <v>7.02</v>
+      </c>
+      <c r="L96">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M96">
+        <v>12.2299264</v>
+      </c>
+      <c r="N96">
+        <v>-5.949926399999997</v>
+      </c>
+      <c r="O96">
+        <v>-1.070986751999999</v>
+      </c>
+      <c r="P96">
+        <v>-4.878939647999998</v>
+      </c>
+      <c r="Q96">
+        <v>2.141060352000002</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.9566220755340514</v>
+      </c>
+      <c r="T96">
+        <v>13.26739625588467</v>
+      </c>
+      <c r="U96">
+        <v>0.1402</v>
+      </c>
+      <c r="V96">
+        <v>0.09242901085651671</v>
+      </c>
+      <c r="W96">
+        <v>0.1272414526779164</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.5134945047584262</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.1783132900492844</v>
+      </c>
+      <c r="C97">
+        <v>-37.47601575304647</v>
+      </c>
+      <c r="D97">
+        <v>36.98398424695353</v>
+      </c>
+      <c r="E97">
+        <v>40.86</v>
+      </c>
+      <c r="F97">
+        <v>88.16</v>
+      </c>
+      <c r="G97">
+        <v>13.7</v>
+      </c>
+      <c r="H97">
+        <v>45.5</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>13.3</v>
+      </c>
+      <c r="K97">
+        <v>7.02</v>
+      </c>
+      <c r="L97">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M97">
+        <v>12.360032</v>
+      </c>
+      <c r="N97">
+        <v>-6.080031999999997</v>
+      </c>
+      <c r="O97">
+        <v>-1.094405759999999</v>
+      </c>
+      <c r="P97">
+        <v>-4.985626239999998</v>
+      </c>
+      <c r="Q97">
+        <v>2.034373760000001</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.146086490640862</v>
+      </c>
+      <c r="T97">
+        <v>15.92087550706161</v>
+      </c>
+      <c r="U97">
+        <v>0.1402</v>
+      </c>
+      <c r="V97">
+        <v>0.09145607390013231</v>
+      </c>
+      <c r="W97">
+        <v>0.1273778584392014</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.5080892994451796</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.1796222900492844</v>
+      </c>
+      <c r="C98">
+        <v>-38.66009309888136</v>
+      </c>
+      <c r="D98">
+        <v>36.72790690111863</v>
+      </c>
+      <c r="E98">
+        <v>41.788</v>
+      </c>
+      <c r="F98">
+        <v>89.08799999999999</v>
+      </c>
+      <c r="G98">
+        <v>13.7</v>
+      </c>
+      <c r="H98">
+        <v>45.5</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>13.3</v>
+      </c>
+      <c r="K98">
+        <v>7.02</v>
+      </c>
+      <c r="L98">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M98">
+        <v>12.4901376</v>
+      </c>
+      <c r="N98">
+        <v>-6.210137599999998</v>
+      </c>
+      <c r="O98">
+        <v>-1.117824768</v>
+      </c>
+      <c r="P98">
+        <v>-5.092312831999998</v>
+      </c>
+      <c r="Q98">
+        <v>1.927687168000001</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.430283113301075</v>
+      </c>
+      <c r="T98">
+        <v>19.90109438382698</v>
+      </c>
+      <c r="U98">
+        <v>0.1402</v>
+      </c>
+      <c r="V98">
+        <v>0.09050340646367261</v>
+      </c>
+      <c r="W98">
+        <v>0.1275114224137931</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.502796702575959</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2244069648612882</v>
+      </c>
+      <c r="C99">
+        <v>-46.62225313476252</v>
+      </c>
+      <c r="D99">
+        <v>29.69374686523747</v>
+      </c>
+      <c r="E99">
+        <v>42.71599999999999</v>
+      </c>
+      <c r="F99">
+        <v>90.01599999999999</v>
+      </c>
+      <c r="G99">
+        <v>13.7</v>
+      </c>
+      <c r="H99">
+        <v>45.5</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>13.3</v>
+      </c>
+      <c r="K99">
+        <v>7.02</v>
+      </c>
+      <c r="L99">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M99">
+        <v>16.5359392</v>
+      </c>
+      <c r="N99">
+        <v>-10.2559392</v>
+      </c>
+      <c r="O99">
+        <v>-1.846069055999999</v>
+      </c>
+      <c r="P99">
+        <v>-8.409870143999997</v>
+      </c>
+      <c r="Q99">
+        <v>-1.389870143999998</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.946633311468226</v>
+      </c>
+      <c r="T99">
+        <v>27.13266098911921</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.06836019329340545</v>
+      </c>
+      <c r="W99">
+        <v>0.1711422324920014</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.3797788516300303</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2261509648612882</v>
+      </c>
+      <c r="C100">
+        <v>-47.77007510393974</v>
+      </c>
+      <c r="D100">
+        <v>29.47392489606026</v>
+      </c>
+      <c r="E100">
+        <v>43.64400000000001</v>
+      </c>
+      <c r="F100">
+        <v>90.944</v>
+      </c>
+      <c r="G100">
+        <v>13.7</v>
+      </c>
+      <c r="H100">
+        <v>45.5</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>13.3</v>
+      </c>
+      <c r="K100">
+        <v>7.02</v>
+      </c>
+      <c r="L100">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M100">
+        <v>16.7064128</v>
+      </c>
+      <c r="N100">
+        <v>-10.4264128</v>
+      </c>
+      <c r="O100">
+        <v>-1.876754303999999</v>
+      </c>
+      <c r="P100">
+        <v>-8.549658495999999</v>
+      </c>
+      <c r="Q100">
+        <v>-1.529658496</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.915299967202339</v>
+      </c>
+      <c r="T100">
+        <v>40.69899148367881</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.0676626403006156</v>
+      </c>
+      <c r="W100">
+        <v>0.1712703729767769</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.3759035572256422</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2278949648612882</v>
+      </c>
+      <c r="C101">
+        <v>-48.91466631864559</v>
+      </c>
+      <c r="D101">
+        <v>29.25733368135442</v>
+      </c>
+      <c r="E101">
+        <v>44.572</v>
+      </c>
+      <c r="F101">
+        <v>91.872</v>
+      </c>
+      <c r="G101">
+        <v>13.7</v>
+      </c>
+      <c r="H101">
+        <v>45.5</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>13.3</v>
+      </c>
+      <c r="K101">
+        <v>7.02</v>
+      </c>
+      <c r="L101">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="M101">
+        <v>16.8768864</v>
+      </c>
+      <c r="N101">
+        <v>-10.5968864</v>
+      </c>
+      <c r="O101">
+        <v>-1.907439552</v>
+      </c>
+      <c r="P101">
+        <v>-8.689446847999999</v>
+      </c>
+      <c r="Q101">
+        <v>-1.669446848</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>5.821299934404677</v>
+      </c>
+      <c r="T101">
+        <v>81.39798296735762</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.06697917928747806</v>
+      </c>
+      <c r="W101">
+        <v>0.1713959247648903</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.3721065515971004</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
